--- a/data/App_Tasks.xlsx
+++ b/data/App_Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webapp\web-space\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webapp\web-space\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C6EB36-3F84-4B4B-A2EE-B022196E5174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886CE4AE-9F24-40F7-8D1A-C6A4DE90609B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16530" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-384" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WebArena" sheetId="4" r:id="rId1"/>
@@ -5652,30 +5652,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5690,6 +5666,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -10124,7 +10124,7 @@
       <c r="B2" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="110" t="s">
         <v>855</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -10149,7 +10149,7 @@
       <c r="B3" s="34">
         <v>2</v>
       </c>
-      <c r="C3" s="105"/>
+      <c r="C3" s="111"/>
       <c r="D3" s="1" t="s">
         <v>857</v>
       </c>
@@ -10172,7 +10172,7 @@
       <c r="B4" s="34">
         <v>3</v>
       </c>
-      <c r="C4" s="105"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="1" t="s">
         <v>858</v>
       </c>
@@ -10193,7 +10193,7 @@
       <c r="B5" s="34">
         <v>4</v>
       </c>
-      <c r="C5" s="105"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="1" t="s">
         <v>859</v>
       </c>
@@ -10214,7 +10214,7 @@
       <c r="B6" s="34">
         <v>5</v>
       </c>
-      <c r="C6" s="105"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="1" t="s">
         <v>860</v>
       </c>
@@ -10235,7 +10235,7 @@
       <c r="B7" s="34">
         <v>6</v>
       </c>
-      <c r="C7" s="105"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="1" t="s">
         <v>861</v>
       </c>
@@ -10254,7 +10254,7 @@
       <c r="B8" s="34">
         <v>7</v>
       </c>
-      <c r="C8" s="105"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="1" t="s">
         <v>862</v>
       </c>
@@ -10273,7 +10273,7 @@
       <c r="B9" s="34">
         <v>8</v>
       </c>
-      <c r="C9" s="105"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="1" t="s">
         <v>863</v>
       </c>
@@ -10292,7 +10292,7 @@
       <c r="B10" s="34">
         <v>9</v>
       </c>
-      <c r="C10" s="106"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="1" t="s">
         <v>864</v>
       </c>
@@ -10311,7 +10311,7 @@
       <c r="B11" s="34">
         <v>10</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="110" t="s">
         <v>865</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -10330,7 +10330,7 @@
       <c r="B12" s="34">
         <v>11</v>
       </c>
-      <c r="C12" s="105"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="1" t="s">
         <v>867</v>
       </c>
@@ -10347,7 +10347,7 @@
       <c r="B13" s="34">
         <v>12</v>
       </c>
-      <c r="C13" s="105"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="1" t="s">
         <v>868</v>
       </c>
@@ -10364,7 +10364,7 @@
       <c r="B14" s="34">
         <v>13</v>
       </c>
-      <c r="C14" s="105"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="1" t="s">
         <v>869</v>
       </c>
@@ -10381,7 +10381,7 @@
       <c r="B15" s="34">
         <v>14</v>
       </c>
-      <c r="C15" s="105"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="1" t="s">
         <v>870</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="B16" s="34">
         <v>15</v>
       </c>
-      <c r="C16" s="105"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="1" t="s">
         <v>871</v>
       </c>
@@ -10415,7 +10415,7 @@
       <c r="B17" s="34">
         <v>16</v>
       </c>
-      <c r="C17" s="105"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="1" t="s">
         <v>854</v>
       </c>
@@ -10432,7 +10432,7 @@
       <c r="B18" s="34">
         <v>17</v>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="63" t="s">
         <v>872</v>
       </c>
@@ -10449,7 +10449,7 @@
       <c r="B19" s="34">
         <v>18</v>
       </c>
-      <c r="C19" s="105"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="63" t="s">
         <v>873</v>
       </c>
@@ -10466,7 +10466,7 @@
       <c r="B20" s="34">
         <v>19</v>
       </c>
-      <c r="C20" s="105"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="63" t="s">
         <v>874</v>
       </c>
@@ -10483,7 +10483,7 @@
       <c r="B21" s="34">
         <v>20</v>
       </c>
-      <c r="C21" s="105"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="63" t="s">
         <v>875</v>
       </c>
@@ -10500,7 +10500,7 @@
       <c r="B22" s="34">
         <v>21</v>
       </c>
-      <c r="C22" s="105"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="63" t="s">
         <v>876</v>
       </c>
@@ -10517,7 +10517,7 @@
       <c r="B23" s="34">
         <v>22</v>
       </c>
-      <c r="C23" s="105"/>
+      <c r="C23" s="111"/>
       <c r="D23" s="1" t="s">
         <v>877</v>
       </c>
@@ -10534,7 +10534,7 @@
       <c r="B24" s="34">
         <v>23</v>
       </c>
-      <c r="C24" s="105"/>
+      <c r="C24" s="111"/>
       <c r="D24" s="1" t="s">
         <v>878</v>
       </c>
@@ -10551,7 +10551,7 @@
       <c r="B25" s="34">
         <v>24</v>
       </c>
-      <c r="C25" s="106"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="1" t="s">
         <v>879</v>
       </c>
@@ -10568,7 +10568,7 @@
       <c r="B26" s="38">
         <v>25</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="110" t="s">
         <v>880</v>
       </c>
       <c r="D26" s="59" t="s">
@@ -10589,7 +10589,7 @@
       <c r="B27" s="34">
         <v>26</v>
       </c>
-      <c r="C27" s="105"/>
+      <c r="C27" s="111"/>
       <c r="D27" s="59" t="s">
         <v>882</v>
       </c>
@@ -10608,7 +10608,7 @@
       <c r="B28" s="34">
         <v>27</v>
       </c>
-      <c r="C28" s="105"/>
+      <c r="C28" s="111"/>
       <c r="D28" s="58" t="s">
         <v>883</v>
       </c>
@@ -10627,7 +10627,7 @@
       <c r="B29" s="34">
         <v>28</v>
       </c>
-      <c r="C29" s="105"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="58" t="s">
         <v>884</v>
       </c>
@@ -10646,7 +10646,7 @@
       <c r="B30" s="34">
         <v>29</v>
       </c>
-      <c r="C30" s="105"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="59" t="s">
         <v>885</v>
       </c>
@@ -10665,7 +10665,7 @@
       <c r="B31" s="34">
         <v>30</v>
       </c>
-      <c r="C31" s="105"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="59" t="s">
         <v>886</v>
       </c>
@@ -10684,7 +10684,7 @@
       <c r="B32" s="34">
         <v>31</v>
       </c>
-      <c r="C32" s="105"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="63" t="s">
         <v>887</v>
       </c>
@@ -10703,7 +10703,7 @@
       <c r="B33" s="34">
         <v>32</v>
       </c>
-      <c r="C33" s="105"/>
+      <c r="C33" s="111"/>
       <c r="D33" s="63" t="s">
         <v>888</v>
       </c>
@@ -10720,7 +10720,7 @@
       <c r="B34" s="34">
         <v>33</v>
       </c>
-      <c r="C34" s="105"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="63" t="s">
         <v>889</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="B35" s="34">
         <v>34</v>
       </c>
-      <c r="C35" s="105"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="63" t="s">
         <v>890</v>
       </c>
@@ -10756,7 +10756,7 @@
       <c r="B36" s="34">
         <v>35</v>
       </c>
-      <c r="C36" s="106"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="1" t="s">
         <v>891</v>
       </c>
@@ -10775,7 +10775,7 @@
       <c r="B37" s="34">
         <v>36</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="110" t="s">
         <v>892</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -10796,7 +10796,7 @@
       <c r="B38" s="34">
         <v>37</v>
       </c>
-      <c r="C38" s="105"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="1" t="s">
         <v>894</v>
       </c>
@@ -10815,7 +10815,7 @@
       <c r="B39" s="34">
         <v>38</v>
       </c>
-      <c r="C39" s="105"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="1" t="s">
         <v>895</v>
       </c>
@@ -10834,7 +10834,7 @@
       <c r="B40" s="34">
         <v>39</v>
       </c>
-      <c r="C40" s="105"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="59" t="s">
         <v>896</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="B41" s="34">
         <v>40</v>
       </c>
-      <c r="C41" s="104" t="s">
+      <c r="C41" s="110" t="s">
         <v>897</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -10874,7 +10874,7 @@
       <c r="B42" s="34">
         <v>41</v>
       </c>
-      <c r="C42" s="105"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="59" t="s">
         <v>899</v>
       </c>
@@ -10893,7 +10893,7 @@
       <c r="B43" s="34">
         <v>42</v>
       </c>
-      <c r="C43" s="105"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="59" t="s">
         <v>900</v>
       </c>
@@ -10912,7 +10912,7 @@
       <c r="B44" s="34">
         <v>43</v>
       </c>
-      <c r="C44" s="105"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="1" t="s">
         <v>901</v>
       </c>
@@ -10931,7 +10931,7 @@
       <c r="B45" s="34">
         <v>44</v>
       </c>
-      <c r="C45" s="105"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="1" t="s">
         <v>916</v>
       </c>
@@ -10950,7 +10950,7 @@
       <c r="B46" s="34">
         <v>45</v>
       </c>
-      <c r="C46" s="105"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="59" t="s">
         <v>917</v>
       </c>
@@ -10967,7 +10967,7 @@
       <c r="B47" s="34">
         <v>46</v>
       </c>
-      <c r="C47" s="104" t="s">
+      <c r="C47" s="110" t="s">
         <v>905</v>
       </c>
       <c r="D47" s="59" t="s">
@@ -10988,7 +10988,7 @@
       <c r="B48" s="34">
         <v>47</v>
       </c>
-      <c r="C48" s="105"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="1" t="s">
         <v>903</v>
       </c>
@@ -11005,7 +11005,7 @@
       <c r="B49" s="34">
         <v>48</v>
       </c>
-      <c r="C49" s="105"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="59" t="s">
         <v>904</v>
       </c>
@@ -11022,7 +11022,7 @@
       <c r="B50" s="34">
         <v>49</v>
       </c>
-      <c r="C50" s="104" t="s">
+      <c r="C50" s="110" t="s">
         <v>907</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -11041,7 +11041,7 @@
       <c r="B51" s="34">
         <v>50</v>
       </c>
-      <c r="C51" s="105"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="1" t="s">
         <v>861</v>
       </c>
@@ -11058,7 +11058,7 @@
       <c r="B52" s="34">
         <v>51</v>
       </c>
-      <c r="C52" s="105"/>
+      <c r="C52" s="111"/>
       <c r="D52" s="1" t="s">
         <v>862</v>
       </c>
@@ -11075,7 +11075,7 @@
       <c r="B53" s="34">
         <v>52</v>
       </c>
-      <c r="C53" s="105"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="1" t="s">
         <v>864</v>
       </c>
@@ -11092,7 +11092,7 @@
       <c r="B54" s="34">
         <v>53</v>
       </c>
-      <c r="C54" s="104" t="s">
+      <c r="C54" s="110" t="s">
         <v>908</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -11111,7 +11111,7 @@
       <c r="B55" s="34">
         <v>54</v>
       </c>
-      <c r="C55" s="105"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="1" t="s">
         <v>910</v>
       </c>
@@ -11128,7 +11128,7 @@
       <c r="B56" s="34">
         <v>55</v>
       </c>
-      <c r="C56" s="105"/>
+      <c r="C56" s="111"/>
       <c r="D56" s="59" t="s">
         <v>911</v>
       </c>
@@ -11145,7 +11145,7 @@
       <c r="B57" s="34">
         <v>56</v>
       </c>
-      <c r="C57" s="105"/>
+      <c r="C57" s="111"/>
       <c r="D57" s="1" t="s">
         <v>912</v>
       </c>
@@ -11162,7 +11162,7 @@
       <c r="B58" s="34">
         <v>57</v>
       </c>
-      <c r="C58" s="105"/>
+      <c r="C58" s="111"/>
       <c r="D58" s="59" t="s">
         <v>913</v>
       </c>
@@ -11179,7 +11179,7 @@
       <c r="B59" s="34">
         <v>58</v>
       </c>
-      <c r="C59" s="105"/>
+      <c r="C59" s="111"/>
       <c r="D59" s="1" t="s">
         <v>914</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="B60" s="34">
         <v>59</v>
       </c>
-      <c r="C60" s="105"/>
+      <c r="C60" s="111"/>
       <c r="D60" s="1" t="s">
         <v>919</v>
       </c>
@@ -11213,7 +11213,7 @@
       <c r="B61" s="34">
         <v>60</v>
       </c>
-      <c r="C61" s="105"/>
+      <c r="C61" s="111"/>
       <c r="D61" s="1" t="s">
         <v>918</v>
       </c>
@@ -11230,7 +11230,7 @@
       <c r="B62" s="34">
         <v>61</v>
       </c>
-      <c r="C62" s="106"/>
+      <c r="C62" s="113"/>
       <c r="D62" s="1" t="s">
         <v>915</v>
       </c>
@@ -11247,7 +11247,7 @@
       <c r="B63" s="34">
         <v>62</v>
       </c>
-      <c r="C63" s="104" t="s">
+      <c r="C63" s="110" t="s">
         <v>855</v>
       </c>
       <c r="D63" t="s">
@@ -11266,7 +11266,7 @@
       <c r="B64" s="34">
         <v>63</v>
       </c>
-      <c r="C64" s="109"/>
+      <c r="C64" s="115"/>
       <c r="D64" s="2" t="s">
         <v>925</v>
       </c>
@@ -11283,7 +11283,7 @@
       <c r="B65" s="34">
         <v>64</v>
       </c>
-      <c r="C65" s="109"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="2" t="s">
         <v>927</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="B66" s="34">
         <v>65</v>
       </c>
-      <c r="C66" s="109"/>
+      <c r="C66" s="115"/>
       <c r="D66" s="2" t="s">
         <v>929</v>
       </c>
@@ -11317,7 +11317,7 @@
       <c r="B67" s="34">
         <v>66</v>
       </c>
-      <c r="C67" s="109"/>
+      <c r="C67" s="115"/>
       <c r="D67" s="2" t="s">
         <v>926</v>
       </c>
@@ -11334,7 +11334,7 @@
       <c r="B68" s="34">
         <v>67</v>
       </c>
-      <c r="C68" s="110" t="s">
+      <c r="C68" s="116" t="s">
         <v>931</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -11353,7 +11353,7 @@
       <c r="B69" s="34">
         <v>68</v>
       </c>
-      <c r="C69" s="109"/>
+      <c r="C69" s="115"/>
       <c r="D69" s="2" t="s">
         <v>956</v>
       </c>
@@ -11370,7 +11370,7 @@
       <c r="B70" s="34">
         <v>69</v>
       </c>
-      <c r="C70" s="109"/>
+      <c r="C70" s="115"/>
       <c r="D70" s="2" t="s">
         <v>949</v>
       </c>
@@ -11387,7 +11387,7 @@
       <c r="B71" s="34">
         <v>70</v>
       </c>
-      <c r="C71" s="109"/>
+      <c r="C71" s="115"/>
       <c r="D71" s="2" t="s">
         <v>932</v>
       </c>
@@ -11404,7 +11404,7 @@
       <c r="B72" s="34">
         <v>71</v>
       </c>
-      <c r="C72" s="109"/>
+      <c r="C72" s="115"/>
       <c r="D72" s="2" t="s">
         <v>942</v>
       </c>
@@ -11421,7 +11421,7 @@
       <c r="B73" s="34">
         <v>72</v>
       </c>
-      <c r="C73" s="109"/>
+      <c r="C73" s="115"/>
       <c r="D73" s="2" t="s">
         <v>943</v>
       </c>
@@ -11438,7 +11438,7 @@
       <c r="B74" s="34">
         <v>73</v>
       </c>
-      <c r="C74" s="109"/>
+      <c r="C74" s="115"/>
       <c r="D74" s="2" t="s">
         <v>944</v>
       </c>
@@ -11455,7 +11455,7 @@
       <c r="B75" s="34">
         <v>74</v>
       </c>
-      <c r="C75" s="109"/>
+      <c r="C75" s="115"/>
       <c r="D75" s="2" t="s">
         <v>945</v>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="B76" s="34">
         <v>75</v>
       </c>
-      <c r="C76" s="109"/>
+      <c r="C76" s="115"/>
       <c r="D76" s="2" t="s">
         <v>946</v>
       </c>
@@ -11489,7 +11489,7 @@
       <c r="B77" s="34">
         <v>76</v>
       </c>
-      <c r="C77" s="109"/>
+      <c r="C77" s="115"/>
       <c r="D77" s="2" t="s">
         <v>947</v>
       </c>
@@ -11506,7 +11506,7 @@
       <c r="B78" s="34">
         <v>77</v>
       </c>
-      <c r="C78" s="109"/>
+      <c r="C78" s="115"/>
       <c r="D78" s="2" t="s">
         <v>948</v>
       </c>
@@ -11523,7 +11523,7 @@
       <c r="B79" s="34">
         <v>78</v>
       </c>
-      <c r="C79" s="110" t="s">
+      <c r="C79" s="116" t="s">
         <v>933</v>
       </c>
       <c r="D79" s="72" t="s">
@@ -11542,7 +11542,7 @@
       <c r="B80" s="34">
         <v>79</v>
       </c>
-      <c r="C80" s="109"/>
+      <c r="C80" s="115"/>
       <c r="D80" s="72" t="s">
         <v>935</v>
       </c>
@@ -11559,7 +11559,7 @@
       <c r="B81" s="34">
         <v>80</v>
       </c>
-      <c r="C81" s="109"/>
+      <c r="C81" s="115"/>
       <c r="D81" s="72" t="s">
         <v>936</v>
       </c>
@@ -11576,7 +11576,7 @@
       <c r="B82" s="34">
         <v>81</v>
       </c>
-      <c r="C82" s="109"/>
+      <c r="C82" s="115"/>
       <c r="D82" s="2" t="s">
         <v>950</v>
       </c>
@@ -11593,7 +11593,7 @@
       <c r="B83" s="34">
         <v>82</v>
       </c>
-      <c r="C83" s="109"/>
+      <c r="C83" s="115"/>
       <c r="D83" s="2" t="s">
         <v>951</v>
       </c>
@@ -11610,7 +11610,7 @@
       <c r="B84" s="34">
         <v>83</v>
       </c>
-      <c r="C84" s="109"/>
+      <c r="C84" s="115"/>
       <c r="D84" s="2" t="s">
         <v>952</v>
       </c>
@@ -11627,7 +11627,7 @@
       <c r="B85" s="34">
         <v>84</v>
       </c>
-      <c r="C85" s="109"/>
+      <c r="C85" s="115"/>
       <c r="D85" s="2" t="s">
         <v>953</v>
       </c>
@@ -11644,7 +11644,7 @@
       <c r="B86" s="34">
         <v>85</v>
       </c>
-      <c r="C86" s="109"/>
+      <c r="C86" s="115"/>
       <c r="D86" s="2" t="s">
         <v>954</v>
       </c>
@@ -11661,7 +11661,7 @@
       <c r="B87" s="34">
         <v>86</v>
       </c>
-      <c r="C87" s="109"/>
+      <c r="C87" s="115"/>
       <c r="D87" s="2" t="s">
         <v>955</v>
       </c>
@@ -11678,7 +11678,7 @@
       <c r="B88" s="34">
         <v>87</v>
       </c>
-      <c r="C88" s="110" t="s">
+      <c r="C88" s="116" t="s">
         <v>937</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -11697,7 +11697,7 @@
       <c r="B89" s="34">
         <v>88</v>
       </c>
-      <c r="C89" s="105"/>
+      <c r="C89" s="111"/>
       <c r="D89" s="6" t="s">
         <v>957</v>
       </c>
@@ -11714,7 +11714,7 @@
       <c r="B90" s="34">
         <v>89</v>
       </c>
-      <c r="C90" s="105"/>
+      <c r="C90" s="111"/>
       <c r="D90" s="1" t="s">
         <v>958</v>
       </c>
@@ -11731,7 +11731,7 @@
       <c r="B91" s="34">
         <v>90</v>
       </c>
-      <c r="C91" s="105"/>
+      <c r="C91" s="111"/>
       <c r="D91" s="1" t="s">
         <v>959</v>
       </c>
@@ -11748,7 +11748,7 @@
       <c r="B92" s="34">
         <v>91</v>
       </c>
-      <c r="C92" s="105"/>
+      <c r="C92" s="111"/>
       <c r="D92" s="1" t="s">
         <v>960</v>
       </c>
@@ -11765,7 +11765,7 @@
       <c r="B93" s="34">
         <v>92</v>
       </c>
-      <c r="C93" s="105"/>
+      <c r="C93" s="111"/>
       <c r="D93" s="1" t="s">
         <v>961</v>
       </c>
@@ -11782,7 +11782,7 @@
       <c r="B94" s="34">
         <v>93</v>
       </c>
-      <c r="C94" s="104" t="s">
+      <c r="C94" s="110" t="s">
         <v>938</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -11801,7 +11801,7 @@
       <c r="B95" s="34">
         <v>94</v>
       </c>
-      <c r="C95" s="107"/>
+      <c r="C95" s="112"/>
       <c r="D95" s="1" t="s">
         <v>941</v>
       </c>
@@ -11818,7 +11818,7 @@
       <c r="B96" s="34">
         <v>95</v>
       </c>
-      <c r="C96" s="108" t="s">
+      <c r="C96" s="114" t="s">
         <v>963</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -11837,7 +11837,7 @@
       <c r="B97" s="34">
         <v>96</v>
       </c>
-      <c r="C97" s="105"/>
+      <c r="C97" s="111"/>
       <c r="D97" s="1" t="s">
         <v>965</v>
       </c>
@@ -11854,7 +11854,7 @@
       <c r="B98" s="34">
         <v>97</v>
       </c>
-      <c r="C98" s="105"/>
+      <c r="C98" s="111"/>
       <c r="D98" s="1" t="s">
         <v>966</v>
       </c>
@@ -11871,7 +11871,7 @@
       <c r="B99" s="34">
         <v>98</v>
       </c>
-      <c r="C99" s="106"/>
+      <c r="C99" s="113"/>
       <c r="D99" s="1" t="s">
         <v>967</v>
       </c>
@@ -11888,7 +11888,7 @@
       <c r="B100" s="34">
         <v>99</v>
       </c>
-      <c r="C100" s="104" t="s">
+      <c r="C100" s="110" t="s">
         <v>968</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -11907,7 +11907,7 @@
       <c r="B101" s="34">
         <v>100</v>
       </c>
-      <c r="C101" s="105"/>
+      <c r="C101" s="111"/>
       <c r="D101" s="1" t="s">
         <v>970</v>
       </c>
@@ -11924,7 +11924,7 @@
       <c r="B102" s="34">
         <v>101</v>
       </c>
-      <c r="C102" s="105"/>
+      <c r="C102" s="111"/>
       <c r="D102" s="1" t="s">
         <v>971</v>
       </c>
@@ -11941,7 +11941,7 @@
       <c r="B103" s="34">
         <v>102</v>
       </c>
-      <c r="C103" s="105"/>
+      <c r="C103" s="111"/>
       <c r="D103" s="1" t="s">
         <v>972</v>
       </c>
@@ -11958,7 +11958,7 @@
       <c r="B104" s="34">
         <v>103</v>
       </c>
-      <c r="C104" s="105"/>
+      <c r="C104" s="111"/>
       <c r="D104" s="1" t="s">
         <v>973</v>
       </c>
@@ -11975,7 +11975,7 @@
       <c r="B105" s="34">
         <v>104</v>
       </c>
-      <c r="C105" s="105"/>
+      <c r="C105" s="111"/>
       <c r="D105" s="1" t="s">
         <v>974</v>
       </c>
@@ -11992,7 +11992,7 @@
       <c r="B106" s="34">
         <v>105</v>
       </c>
-      <c r="C106" s="106"/>
+      <c r="C106" s="113"/>
       <c r="D106" s="1" t="s">
         <v>975</v>
       </c>
@@ -12009,7 +12009,7 @@
       <c r="B107" s="34">
         <v>106</v>
       </c>
-      <c r="C107" s="104" t="s">
+      <c r="C107" s="110" t="s">
         <v>976</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -12028,7 +12028,7 @@
       <c r="B108" s="34">
         <v>107</v>
       </c>
-      <c r="C108" s="105"/>
+      <c r="C108" s="111"/>
       <c r="D108" s="1" t="s">
         <v>978</v>
       </c>
@@ -12045,7 +12045,7 @@
       <c r="B109" s="34">
         <v>108</v>
       </c>
-      <c r="C109" s="105"/>
+      <c r="C109" s="111"/>
       <c r="D109" s="1" t="s">
         <v>979</v>
       </c>
@@ -12062,7 +12062,7 @@
       <c r="B110" s="34">
         <v>109</v>
       </c>
-      <c r="C110" s="105"/>
+      <c r="C110" s="111"/>
       <c r="D110" s="1" t="s">
         <v>980</v>
       </c>
@@ -12079,7 +12079,7 @@
       <c r="B111" s="34">
         <v>110</v>
       </c>
-      <c r="C111" s="105"/>
+      <c r="C111" s="111"/>
       <c r="D111" s="1" t="s">
         <v>981</v>
       </c>
@@ -12096,7 +12096,7 @@
       <c r="B112" s="34">
         <v>111</v>
       </c>
-      <c r="C112" s="105"/>
+      <c r="C112" s="111"/>
       <c r="D112" s="1" t="s">
         <v>982</v>
       </c>
@@ -12113,7 +12113,7 @@
       <c r="B113" s="34">
         <v>112</v>
       </c>
-      <c r="C113" s="104" t="s">
+      <c r="C113" s="110" t="s">
         <v>983</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -12132,7 +12132,7 @@
       <c r="B114" s="34">
         <v>113</v>
       </c>
-      <c r="C114" s="105"/>
+      <c r="C114" s="111"/>
       <c r="D114" s="1" t="s">
         <v>985</v>
       </c>
@@ -12149,7 +12149,7 @@
       <c r="B115" s="34">
         <v>114</v>
       </c>
-      <c r="C115" s="105"/>
+      <c r="C115" s="111"/>
       <c r="D115" s="1" t="s">
         <v>986</v>
       </c>
@@ -12166,7 +12166,7 @@
       <c r="B116" s="34">
         <v>115</v>
       </c>
-      <c r="C116" s="105"/>
+      <c r="C116" s="111"/>
       <c r="D116" s="1" t="s">
         <v>987</v>
       </c>
@@ -12183,7 +12183,7 @@
       <c r="B117" s="34">
         <v>116</v>
       </c>
-      <c r="C117" s="105"/>
+      <c r="C117" s="111"/>
       <c r="D117" s="1" t="s">
         <v>988</v>
       </c>
@@ -12200,7 +12200,7 @@
       <c r="B118" s="34">
         <v>117</v>
       </c>
-      <c r="C118" s="105"/>
+      <c r="C118" s="111"/>
       <c r="D118" s="1" t="s">
         <v>989</v>
       </c>
@@ -12217,7 +12217,7 @@
       <c r="B119" s="34">
         <v>118</v>
       </c>
-      <c r="C119" s="104" t="s">
+      <c r="C119" s="110" t="s">
         <v>990</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -12236,7 +12236,7 @@
       <c r="B120" s="34">
         <v>119</v>
       </c>
-      <c r="C120" s="105"/>
+      <c r="C120" s="111"/>
       <c r="D120" s="1" t="s">
         <v>992</v>
       </c>
@@ -12253,7 +12253,7 @@
       <c r="B121" s="34">
         <v>120</v>
       </c>
-      <c r="C121" s="105"/>
+      <c r="C121" s="111"/>
       <c r="D121" s="1" t="s">
         <v>993</v>
       </c>
@@ -12270,7 +12270,7 @@
       <c r="B122" s="34">
         <v>121</v>
       </c>
-      <c r="C122" s="105"/>
+      <c r="C122" s="111"/>
       <c r="D122" s="1" t="s">
         <v>994</v>
       </c>
@@ -12287,7 +12287,7 @@
       <c r="B123" s="34">
         <v>122</v>
       </c>
-      <c r="C123" s="105"/>
+      <c r="C123" s="111"/>
       <c r="D123" s="1" t="s">
         <v>995</v>
       </c>
@@ -12304,7 +12304,7 @@
       <c r="B124" s="34">
         <v>123</v>
       </c>
-      <c r="C124" s="104" t="s">
+      <c r="C124" s="110" t="s">
         <v>996</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -12323,7 +12323,7 @@
       <c r="B125" s="34">
         <v>124</v>
       </c>
-      <c r="C125" s="105"/>
+      <c r="C125" s="111"/>
       <c r="D125" s="1" t="s">
         <v>998</v>
       </c>
@@ -12340,7 +12340,7 @@
       <c r="B126" s="34">
         <v>125</v>
       </c>
-      <c r="C126" s="105"/>
+      <c r="C126" s="111"/>
       <c r="D126" s="1" t="s">
         <v>999</v>
       </c>
@@ -12357,7 +12357,7 @@
       <c r="B127" s="34">
         <v>126</v>
       </c>
-      <c r="C127" s="105"/>
+      <c r="C127" s="111"/>
       <c r="D127" s="1" t="s">
         <v>1000</v>
       </c>
@@ -12374,7 +12374,7 @@
       <c r="B128" s="34">
         <v>127</v>
       </c>
-      <c r="C128" s="105"/>
+      <c r="C128" s="111"/>
       <c r="D128" s="1" t="s">
         <v>1001</v>
       </c>
@@ -12391,7 +12391,7 @@
       <c r="B129" s="34">
         <v>128</v>
       </c>
-      <c r="C129" s="105"/>
+      <c r="C129" s="111"/>
       <c r="D129" s="1" t="s">
         <v>1002</v>
       </c>
@@ -12408,7 +12408,7 @@
       <c r="B130" s="34">
         <v>129</v>
       </c>
-      <c r="C130" s="105"/>
+      <c r="C130" s="111"/>
       <c r="D130" s="1" t="s">
         <v>1003</v>
       </c>
@@ -12425,7 +12425,7 @@
       <c r="B131" s="34">
         <v>130</v>
       </c>
-      <c r="C131" s="106"/>
+      <c r="C131" s="113"/>
       <c r="D131" s="1" t="s">
         <v>1004</v>
       </c>
@@ -12442,7 +12442,7 @@
       <c r="B132" s="34">
         <v>131</v>
       </c>
-      <c r="C132" s="104" t="s">
+      <c r="C132" s="110" t="s">
         <v>1005</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -12461,7 +12461,7 @@
       <c r="B133" s="34">
         <v>132</v>
       </c>
-      <c r="C133" s="105"/>
+      <c r="C133" s="111"/>
       <c r="D133" s="1" t="s">
         <v>1007</v>
       </c>
@@ -12478,7 +12478,7 @@
       <c r="B134" s="34">
         <v>133</v>
       </c>
-      <c r="C134" s="105"/>
+      <c r="C134" s="111"/>
       <c r="D134" s="1" t="s">
         <v>1008</v>
       </c>
@@ -12495,7 +12495,7 @@
       <c r="B135" s="34">
         <v>134</v>
       </c>
-      <c r="C135" s="105"/>
+      <c r="C135" s="111"/>
       <c r="D135" s="1" t="s">
         <v>1009</v>
       </c>
@@ -12512,7 +12512,7 @@
       <c r="B136" s="34">
         <v>135</v>
       </c>
-      <c r="C136" s="105"/>
+      <c r="C136" s="111"/>
       <c r="D136" s="1" t="s">
         <v>1010</v>
       </c>
@@ -12529,7 +12529,7 @@
       <c r="B137" s="34">
         <v>136</v>
       </c>
-      <c r="C137" s="105"/>
+      <c r="C137" s="111"/>
       <c r="D137" s="1" t="s">
         <v>1011</v>
       </c>
@@ -12546,7 +12546,7 @@
       <c r="B138" s="34">
         <v>137</v>
       </c>
-      <c r="C138" s="105" t="s">
+      <c r="C138" s="111" t="s">
         <v>1012</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -12565,7 +12565,7 @@
       <c r="B139" s="34">
         <v>138</v>
       </c>
-      <c r="C139" s="105"/>
+      <c r="C139" s="111"/>
       <c r="D139" s="1" t="s">
         <v>1014</v>
       </c>
@@ -12582,7 +12582,7 @@
       <c r="B140" s="34">
         <v>139</v>
       </c>
-      <c r="C140" s="105"/>
+      <c r="C140" s="111"/>
       <c r="D140" s="1" t="s">
         <v>1015</v>
       </c>
@@ -12599,7 +12599,7 @@
       <c r="B141" s="34">
         <v>140</v>
       </c>
-      <c r="C141" s="105"/>
+      <c r="C141" s="111"/>
       <c r="D141" s="1" t="s">
         <v>1016</v>
       </c>
@@ -12616,7 +12616,7 @@
       <c r="B142" s="34">
         <v>141</v>
       </c>
-      <c r="C142" s="106"/>
+      <c r="C142" s="113"/>
       <c r="D142" s="1" t="s">
         <v>1017</v>
       </c>
@@ -12633,7 +12633,7 @@
       <c r="B143" s="34">
         <v>142</v>
       </c>
-      <c r="C143" s="105" t="s">
+      <c r="C143" s="111" t="s">
         <v>1019</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -12652,7 +12652,7 @@
       <c r="B144" s="34">
         <v>143</v>
       </c>
-      <c r="C144" s="105"/>
+      <c r="C144" s="111"/>
       <c r="D144" s="1" t="s">
         <v>1021</v>
       </c>
@@ -12669,7 +12669,7 @@
       <c r="B145" s="34">
         <v>144</v>
       </c>
-      <c r="C145" s="105"/>
+      <c r="C145" s="111"/>
       <c r="D145" s="1" t="s">
         <v>1022</v>
       </c>
@@ -12686,7 +12686,7 @@
       <c r="B146" s="34">
         <v>145</v>
       </c>
-      <c r="C146" s="105"/>
+      <c r="C146" s="111"/>
       <c r="D146" s="1" t="s">
         <v>1023</v>
       </c>
@@ -12703,7 +12703,7 @@
       <c r="B147" s="34">
         <v>146</v>
       </c>
-      <c r="C147" s="106"/>
+      <c r="C147" s="113"/>
       <c r="D147" s="1" t="s">
         <v>1024</v>
       </c>
@@ -12720,7 +12720,7 @@
       <c r="B148" s="34">
         <v>147</v>
       </c>
-      <c r="C148" s="104" t="s">
+      <c r="C148" s="110" t="s">
         <v>1025</v>
       </c>
       <c r="D148" s="1" t="s">
@@ -12739,7 +12739,7 @@
       <c r="B149" s="34">
         <v>148</v>
       </c>
-      <c r="C149" s="105"/>
+      <c r="C149" s="111"/>
       <c r="D149" s="1" t="s">
         <v>1027</v>
       </c>
@@ -12756,7 +12756,7 @@
       <c r="B150" s="34">
         <v>149</v>
       </c>
-      <c r="C150" s="105"/>
+      <c r="C150" s="111"/>
       <c r="D150" s="1" t="s">
         <v>1028</v>
       </c>
@@ -12773,7 +12773,7 @@
       <c r="B151" s="34">
         <v>150</v>
       </c>
-      <c r="C151" s="105"/>
+      <c r="C151" s="111"/>
       <c r="D151" s="1" t="s">
         <v>1029</v>
       </c>
@@ -12790,7 +12790,7 @@
       <c r="B152" s="34">
         <v>151</v>
       </c>
-      <c r="C152" s="105"/>
+      <c r="C152" s="111"/>
       <c r="D152" s="1" t="s">
         <v>1030</v>
       </c>
@@ -12807,7 +12807,7 @@
       <c r="B153" s="34">
         <v>152</v>
       </c>
-      <c r="C153" s="106"/>
+      <c r="C153" s="113"/>
       <c r="D153" s="1" t="s">
         <v>1031</v>
       </c>
@@ -12824,7 +12824,7 @@
       <c r="B154" s="34">
         <v>153</v>
       </c>
-      <c r="C154" s="104" t="s">
+      <c r="C154" s="110" t="s">
         <v>1032</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -12843,7 +12843,7 @@
       <c r="B155" s="34">
         <v>154</v>
       </c>
-      <c r="C155" s="105"/>
+      <c r="C155" s="111"/>
       <c r="D155" s="1" t="s">
         <v>1034</v>
       </c>
@@ -12860,7 +12860,7 @@
       <c r="B156" s="34">
         <v>155</v>
       </c>
-      <c r="C156" s="105"/>
+      <c r="C156" s="111"/>
       <c r="D156" s="1" t="s">
         <v>1035</v>
       </c>
@@ -12877,7 +12877,7 @@
       <c r="B157" s="34">
         <v>156</v>
       </c>
-      <c r="C157" s="105"/>
+      <c r="C157" s="111"/>
       <c r="D157" s="1" t="s">
         <v>1036</v>
       </c>
@@ -12894,7 +12894,7 @@
       <c r="B158" s="34">
         <v>157</v>
       </c>
-      <c r="C158" s="105"/>
+      <c r="C158" s="111"/>
       <c r="D158" s="1" t="s">
         <v>1037</v>
       </c>
@@ -12911,7 +12911,7 @@
       <c r="B159" s="34">
         <v>158</v>
       </c>
-      <c r="C159" s="106"/>
+      <c r="C159" s="113"/>
       <c r="D159" s="1" t="s">
         <v>1038</v>
       </c>
@@ -12928,7 +12928,7 @@
       <c r="B160" s="34">
         <v>159</v>
       </c>
-      <c r="C160" s="104" t="s">
+      <c r="C160" s="110" t="s">
         <v>1039</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -12947,7 +12947,7 @@
       <c r="B161" s="34">
         <v>160</v>
       </c>
-      <c r="C161" s="105"/>
+      <c r="C161" s="111"/>
       <c r="D161" s="1" t="s">
         <v>1041</v>
       </c>
@@ -12964,7 +12964,7 @@
       <c r="B162" s="34">
         <v>161</v>
       </c>
-      <c r="C162" s="105"/>
+      <c r="C162" s="111"/>
       <c r="D162" s="1" t="s">
         <v>1042</v>
       </c>
@@ -12981,7 +12981,7 @@
       <c r="B163" s="34">
         <v>162</v>
       </c>
-      <c r="C163" s="106"/>
+      <c r="C163" s="113"/>
       <c r="D163" s="1" t="s">
         <v>1043</v>
       </c>
@@ -12998,7 +12998,7 @@
       <c r="B164" s="34">
         <v>163</v>
       </c>
-      <c r="C164" s="104" t="s">
+      <c r="C164" s="110" t="s">
         <v>1044</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -13017,7 +13017,7 @@
       <c r="B165" s="34">
         <v>164</v>
       </c>
-      <c r="C165" s="105"/>
+      <c r="C165" s="111"/>
       <c r="D165" s="1" t="s">
         <v>1045</v>
       </c>
@@ -13034,7 +13034,7 @@
       <c r="B166" s="34">
         <v>165</v>
       </c>
-      <c r="C166" s="105"/>
+      <c r="C166" s="111"/>
       <c r="D166" s="1" t="s">
         <v>1046</v>
       </c>
@@ -13051,7 +13051,7 @@
       <c r="B167" s="34">
         <v>166</v>
       </c>
-      <c r="C167" s="104" t="s">
+      <c r="C167" s="110" t="s">
         <v>1048</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -13070,7 +13070,7 @@
       <c r="B168" s="34">
         <v>167</v>
       </c>
-      <c r="C168" s="105"/>
+      <c r="C168" s="111"/>
       <c r="D168" s="1" t="s">
         <v>1050</v>
       </c>
@@ -13087,7 +13087,7 @@
       <c r="B169" s="34">
         <v>168</v>
       </c>
-      <c r="C169" s="105"/>
+      <c r="C169" s="111"/>
       <c r="D169" s="1" t="s">
         <v>1051</v>
       </c>
@@ -13104,7 +13104,7 @@
       <c r="B170" s="34">
         <v>169</v>
       </c>
-      <c r="C170" s="104" t="s">
+      <c r="C170" s="110" t="s">
         <v>1052</v>
       </c>
       <c r="D170" s="58" t="s">
@@ -13123,7 +13123,7 @@
       <c r="B171" s="34">
         <v>170</v>
       </c>
-      <c r="C171" s="105"/>
+      <c r="C171" s="111"/>
       <c r="D171" s="58" t="s">
         <v>1054</v>
       </c>
@@ -13140,7 +13140,7 @@
       <c r="B172" s="34">
         <v>171</v>
       </c>
-      <c r="C172" s="104" t="s">
+      <c r="C172" s="110" t="s">
         <v>1065</v>
       </c>
       <c r="D172" s="42" t="s">
@@ -13159,7 +13159,7 @@
       <c r="B173" s="34">
         <v>172</v>
       </c>
-      <c r="C173" s="105"/>
+      <c r="C173" s="111"/>
       <c r="D173" s="42" t="s">
         <v>1067</v>
       </c>
@@ -13176,7 +13176,7 @@
       <c r="B174" s="34">
         <v>173</v>
       </c>
-      <c r="C174" s="105"/>
+      <c r="C174" s="111"/>
       <c r="D174" s="42" t="s">
         <v>1069</v>
       </c>
@@ -13193,7 +13193,7 @@
       <c r="B175" s="34">
         <v>174</v>
       </c>
-      <c r="C175" s="105"/>
+      <c r="C175" s="111"/>
       <c r="D175" s="42" t="s">
         <v>1068</v>
       </c>
@@ -13210,7 +13210,7 @@
       <c r="B176" s="34">
         <v>175</v>
       </c>
-      <c r="C176" s="105"/>
+      <c r="C176" s="111"/>
       <c r="D176" s="42" t="s">
         <v>1070</v>
       </c>
@@ -13227,7 +13227,7 @@
       <c r="B177" s="34">
         <v>176</v>
       </c>
-      <c r="C177" s="104" t="s">
+      <c r="C177" s="110" t="s">
         <v>1071</v>
       </c>
       <c r="D177" s="42" t="s">
@@ -13246,7 +13246,7 @@
       <c r="B178" s="34">
         <v>177</v>
       </c>
-      <c r="C178" s="105"/>
+      <c r="C178" s="111"/>
       <c r="D178" s="42" t="s">
         <v>1073</v>
       </c>
@@ -13263,7 +13263,7 @@
       <c r="B179" s="34">
         <v>178</v>
       </c>
-      <c r="C179" s="105"/>
+      <c r="C179" s="111"/>
       <c r="D179" s="42" t="s">
         <v>1074</v>
       </c>
@@ -13280,7 +13280,7 @@
       <c r="B180" s="34">
         <v>179</v>
       </c>
-      <c r="C180" s="105"/>
+      <c r="C180" s="111"/>
       <c r="D180" s="42" t="s">
         <v>1075</v>
       </c>
@@ -13297,7 +13297,7 @@
       <c r="B181" s="34">
         <v>180</v>
       </c>
-      <c r="C181" s="105"/>
+      <c r="C181" s="111"/>
       <c r="D181" s="42" t="s">
         <v>1076</v>
       </c>
@@ -13314,7 +13314,7 @@
       <c r="B182" s="34">
         <v>181</v>
       </c>
-      <c r="C182" s="105"/>
+      <c r="C182" s="111"/>
       <c r="D182" s="42"/>
       <c r="E182" s="46" t="s">
         <v>1056</v>
@@ -13329,7 +13329,7 @@
       <c r="B183" s="34">
         <v>182</v>
       </c>
-      <c r="C183" s="107"/>
+      <c r="C183" s="112"/>
       <c r="D183" s="42"/>
       <c r="E183" s="46" t="s">
         <v>1056</v>
@@ -13344,7 +13344,7 @@
       <c r="B184" s="34">
         <v>183</v>
       </c>
-      <c r="C184" s="104" t="s">
+      <c r="C184" s="110" t="s">
         <v>1077</v>
       </c>
       <c r="D184" s="42" t="s">
@@ -13363,7 +13363,7 @@
       <c r="B185" s="34">
         <v>184</v>
       </c>
-      <c r="C185" s="105"/>
+      <c r="C185" s="111"/>
       <c r="D185" s="42" t="s">
         <v>1079</v>
       </c>
@@ -13380,7 +13380,7 @@
       <c r="B186" s="34">
         <v>185</v>
       </c>
-      <c r="C186" s="105"/>
+      <c r="C186" s="111"/>
       <c r="D186" s="42" t="s">
         <v>1080</v>
       </c>
@@ -13397,7 +13397,7 @@
       <c r="B187" s="34">
         <v>186</v>
       </c>
-      <c r="C187" s="105"/>
+      <c r="C187" s="111"/>
       <c r="D187" s="42" t="s">
         <v>1081</v>
       </c>
@@ -13414,7 +13414,7 @@
       <c r="B188" s="34">
         <v>187</v>
       </c>
-      <c r="C188" s="105"/>
+      <c r="C188" s="111"/>
       <c r="D188" s="42" t="s">
         <v>1082</v>
       </c>
@@ -13431,7 +13431,7 @@
       <c r="B189" s="34">
         <v>188</v>
       </c>
-      <c r="C189" s="105"/>
+      <c r="C189" s="111"/>
       <c r="D189" s="42" t="s">
         <v>1083</v>
       </c>
@@ -13448,7 +13448,7 @@
       <c r="B190" s="34">
         <v>189</v>
       </c>
-      <c r="C190" s="107"/>
+      <c r="C190" s="112"/>
       <c r="D190" s="42" t="s">
         <v>1084</v>
       </c>
@@ -13465,7 +13465,7 @@
       <c r="B191" s="34">
         <v>190</v>
       </c>
-      <c r="C191" s="104" t="s">
+      <c r="C191" s="110" t="s">
         <v>18</v>
       </c>
       <c r="D191" s="42" t="s">
@@ -13484,7 +13484,7 @@
       <c r="B192" s="34">
         <v>191</v>
       </c>
-      <c r="C192" s="105"/>
+      <c r="C192" s="111"/>
       <c r="D192" s="42" t="s">
         <v>1086</v>
       </c>
@@ -13501,7 +13501,7 @@
       <c r="B193" s="34">
         <v>192</v>
       </c>
-      <c r="C193" s="105"/>
+      <c r="C193" s="111"/>
       <c r="D193" s="42" t="s">
         <v>1087</v>
       </c>
@@ -13518,7 +13518,7 @@
       <c r="B194" s="34">
         <v>193</v>
       </c>
-      <c r="C194" s="105"/>
+      <c r="C194" s="111"/>
       <c r="D194" s="42" t="s">
         <v>1088</v>
       </c>
@@ -13535,7 +13535,7 @@
       <c r="B195" s="34">
         <v>194</v>
       </c>
-      <c r="C195" s="105"/>
+      <c r="C195" s="111"/>
       <c r="D195" s="42" t="s">
         <v>1089</v>
       </c>
@@ -13552,7 +13552,7 @@
       <c r="B196" s="34">
         <v>195</v>
       </c>
-      <c r="C196" s="105"/>
+      <c r="C196" s="111"/>
       <c r="D196" s="42" t="s">
         <v>1090</v>
       </c>
@@ -13567,7 +13567,7 @@
       <c r="B197" s="34">
         <v>196</v>
       </c>
-      <c r="C197" s="111" t="s">
+      <c r="C197" s="109" t="s">
         <v>855</v>
       </c>
       <c r="D197" s="42" t="s">
@@ -13586,7 +13586,7 @@
       <c r="B198" s="34">
         <v>197</v>
       </c>
-      <c r="C198" s="112"/>
+      <c r="C198" s="104"/>
       <c r="D198" s="42" t="s">
         <v>1093</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="B199" s="34">
         <v>198</v>
       </c>
-      <c r="C199" s="112"/>
+      <c r="C199" s="104"/>
       <c r="D199" s="42" t="s">
         <v>1094</v>
       </c>
@@ -13620,7 +13620,7 @@
       <c r="B200" s="34">
         <v>199</v>
       </c>
-      <c r="C200" s="112"/>
+      <c r="C200" s="104"/>
       <c r="D200" s="42" t="s">
         <v>1095</v>
       </c>
@@ -13637,7 +13637,7 @@
       <c r="B201" s="34">
         <v>200</v>
       </c>
-      <c r="C201" s="112"/>
+      <c r="C201" s="104"/>
       <c r="D201" s="42" t="s">
         <v>1096</v>
       </c>
@@ -13654,7 +13654,7 @@
       <c r="B202" s="34">
         <v>201</v>
       </c>
-      <c r="C202" s="112"/>
+      <c r="C202" s="104"/>
       <c r="D202" s="42" t="s">
         <v>1097</v>
       </c>
@@ -13671,7 +13671,7 @@
       <c r="B203" s="34">
         <v>202</v>
       </c>
-      <c r="C203" s="112"/>
+      <c r="C203" s="104"/>
       <c r="D203" s="42" t="s">
         <v>1098</v>
       </c>
@@ -13688,7 +13688,7 @@
       <c r="B204" s="34">
         <v>203</v>
       </c>
-      <c r="C204" s="112"/>
+      <c r="C204" s="104"/>
       <c r="D204" s="42" t="s">
         <v>1099</v>
       </c>
@@ -13705,7 +13705,7 @@
       <c r="B205" s="34">
         <v>204</v>
       </c>
-      <c r="C205" s="112"/>
+      <c r="C205" s="104"/>
       <c r="D205" s="42" t="s">
         <v>1100</v>
       </c>
@@ -13722,7 +13722,7 @@
       <c r="B206" s="34">
         <v>205</v>
       </c>
-      <c r="C206" s="113"/>
+      <c r="C206" s="105"/>
       <c r="D206" s="42" t="s">
         <v>1101</v>
       </c>
@@ -13739,7 +13739,7 @@
       <c r="B207" s="34">
         <v>206</v>
       </c>
-      <c r="C207" s="111" t="s">
+      <c r="C207" s="109" t="s">
         <v>1102</v>
       </c>
       <c r="D207" s="42" t="s">
@@ -13758,7 +13758,7 @@
       <c r="B208" s="34">
         <v>207</v>
       </c>
-      <c r="C208" s="112"/>
+      <c r="C208" s="104"/>
       <c r="D208" s="42" t="s">
         <v>1104</v>
       </c>
@@ -13775,7 +13775,7 @@
       <c r="B209" s="34">
         <v>208</v>
       </c>
-      <c r="C209" s="112"/>
+      <c r="C209" s="104"/>
       <c r="D209" s="42" t="s">
         <v>1105</v>
       </c>
@@ -13792,7 +13792,7 @@
       <c r="B210" s="34">
         <v>209</v>
       </c>
-      <c r="C210" s="112"/>
+      <c r="C210" s="104"/>
       <c r="D210" s="42" t="s">
         <v>1106</v>
       </c>
@@ -13809,7 +13809,7 @@
       <c r="B211" s="34">
         <v>210</v>
       </c>
-      <c r="C211" s="112"/>
+      <c r="C211" s="104"/>
       <c r="D211" s="42" t="s">
         <v>1107</v>
       </c>
@@ -13826,7 +13826,7 @@
       <c r="B212" s="34">
         <v>211</v>
       </c>
-      <c r="C212" s="112"/>
+      <c r="C212" s="104"/>
       <c r="D212" s="42" t="s">
         <v>1108</v>
       </c>
@@ -13843,7 +13843,7 @@
       <c r="B213" s="34">
         <v>212</v>
       </c>
-      <c r="C213" s="111" t="s">
+      <c r="C213" s="109" t="s">
         <v>1109</v>
       </c>
       <c r="D213" s="42" t="s">
@@ -13862,7 +13862,7 @@
       <c r="B214" s="34">
         <v>213</v>
       </c>
-      <c r="C214" s="112"/>
+      <c r="C214" s="104"/>
       <c r="D214" s="42" t="s">
         <v>1111</v>
       </c>
@@ -13879,7 +13879,7 @@
       <c r="B215" s="34">
         <v>214</v>
       </c>
-      <c r="C215" s="112"/>
+      <c r="C215" s="104"/>
       <c r="D215" s="42" t="s">
         <v>1112</v>
       </c>
@@ -13896,7 +13896,7 @@
       <c r="B216" s="34">
         <v>215</v>
       </c>
-      <c r="C216" s="112"/>
+      <c r="C216" s="104"/>
       <c r="D216" s="42" t="s">
         <v>1113</v>
       </c>
@@ -13913,7 +13913,7 @@
       <c r="B217" s="34">
         <v>216</v>
       </c>
-      <c r="C217" s="111" t="s">
+      <c r="C217" s="109" t="s">
         <v>1114</v>
       </c>
       <c r="D217" s="42" t="s">
@@ -13932,7 +13932,7 @@
       <c r="B218" s="34">
         <v>217</v>
       </c>
-      <c r="C218" s="112"/>
+      <c r="C218" s="104"/>
       <c r="D218" s="42" t="s">
         <v>1116</v>
       </c>
@@ -13949,7 +13949,7 @@
       <c r="B219" s="34">
         <v>218</v>
       </c>
-      <c r="C219" s="112"/>
+      <c r="C219" s="104"/>
       <c r="D219" s="42" t="s">
         <v>1117</v>
       </c>
@@ -13966,7 +13966,7 @@
       <c r="B220" s="34">
         <v>219</v>
       </c>
-      <c r="C220" s="112"/>
+      <c r="C220" s="104"/>
       <c r="D220" s="42" t="s">
         <v>1118</v>
       </c>
@@ -13983,7 +13983,7 @@
       <c r="B221" s="34">
         <v>220</v>
       </c>
-      <c r="C221" s="112"/>
+      <c r="C221" s="104"/>
       <c r="D221" s="42" t="s">
         <v>1119</v>
       </c>
@@ -14000,7 +14000,7 @@
       <c r="B222" s="34">
         <v>221</v>
       </c>
-      <c r="C222" s="112"/>
+      <c r="C222" s="104"/>
       <c r="D222" s="42" t="s">
         <v>1120</v>
       </c>
@@ -14017,7 +14017,7 @@
       <c r="B223" s="34">
         <v>222</v>
       </c>
-      <c r="C223" s="112"/>
+      <c r="C223" s="104"/>
       <c r="D223" s="42" t="s">
         <v>1121</v>
       </c>
@@ -14034,7 +14034,7 @@
       <c r="B224" s="34">
         <v>223</v>
       </c>
-      <c r="C224" s="111" t="s">
+      <c r="C224" s="109" t="s">
         <v>1122</v>
       </c>
       <c r="D224" s="42" t="s">
@@ -14053,7 +14053,7 @@
       <c r="B225" s="34">
         <v>224</v>
       </c>
-      <c r="C225" s="112"/>
+      <c r="C225" s="104"/>
       <c r="D225" s="42" t="s">
         <v>1124</v>
       </c>
@@ -14070,7 +14070,7 @@
       <c r="B226" s="34">
         <v>225</v>
       </c>
-      <c r="C226" s="112"/>
+      <c r="C226" s="104"/>
       <c r="D226" s="42" t="s">
         <v>1125</v>
       </c>
@@ -14087,7 +14087,7 @@
       <c r="B227" s="34">
         <v>226</v>
       </c>
-      <c r="C227" s="112"/>
+      <c r="C227" s="104"/>
       <c r="D227" s="42" t="s">
         <v>1126</v>
       </c>
@@ -14104,7 +14104,7 @@
       <c r="B228" s="34">
         <v>227</v>
       </c>
-      <c r="C228" s="112"/>
+      <c r="C228" s="104"/>
       <c r="D228" s="42" t="s">
         <v>1127</v>
       </c>
@@ -14121,7 +14121,7 @@
       <c r="B229" s="34">
         <v>228</v>
       </c>
-      <c r="C229" s="112"/>
+      <c r="C229" s="104"/>
       <c r="D229" s="42" t="s">
         <v>1128</v>
       </c>
@@ -14138,7 +14138,7 @@
       <c r="B230" s="34">
         <v>229</v>
       </c>
-      <c r="C230" s="112"/>
+      <c r="C230" s="104"/>
       <c r="D230" s="42" t="s">
         <v>1129</v>
       </c>
@@ -14155,7 +14155,7 @@
       <c r="B231" s="34">
         <v>230</v>
       </c>
-      <c r="C231" s="112"/>
+      <c r="C231" s="104"/>
       <c r="D231" s="42" t="s">
         <v>1130</v>
       </c>
@@ -14172,7 +14172,7 @@
       <c r="B232" s="34">
         <v>231</v>
       </c>
-      <c r="C232" s="112"/>
+      <c r="C232" s="104"/>
       <c r="D232" s="42" t="s">
         <v>1131</v>
       </c>
@@ -14189,7 +14189,7 @@
       <c r="B233" s="34">
         <v>232</v>
       </c>
-      <c r="C233" s="113"/>
+      <c r="C233" s="105"/>
       <c r="D233" s="42" t="s">
         <v>1132</v>
       </c>
@@ -14206,7 +14206,7 @@
       <c r="B234" s="34">
         <v>233</v>
       </c>
-      <c r="C234" s="111" t="s">
+      <c r="C234" s="109" t="s">
         <v>1133</v>
       </c>
       <c r="D234" s="42" t="s">
@@ -14225,7 +14225,7 @@
       <c r="B235" s="34">
         <v>234</v>
       </c>
-      <c r="C235" s="112"/>
+      <c r="C235" s="104"/>
       <c r="D235" s="42" t="s">
         <v>1138</v>
       </c>
@@ -14242,7 +14242,7 @@
       <c r="B236" s="34">
         <v>235</v>
       </c>
-      <c r="C236" s="112"/>
+      <c r="C236" s="104"/>
       <c r="D236" s="42" t="s">
         <v>1135</v>
       </c>
@@ -14259,7 +14259,7 @@
       <c r="B237" s="34">
         <v>236</v>
       </c>
-      <c r="C237" s="112"/>
+      <c r="C237" s="104"/>
       <c r="D237" t="s">
         <v>1137</v>
       </c>
@@ -14276,7 +14276,7 @@
       <c r="B238" s="34">
         <v>237</v>
       </c>
-      <c r="C238" s="112"/>
+      <c r="C238" s="104"/>
       <c r="D238" t="s">
         <v>1136</v>
       </c>
@@ -14293,7 +14293,7 @@
       <c r="B239" s="34">
         <v>238</v>
       </c>
-      <c r="C239" s="112" t="s">
+      <c r="C239" s="104" t="s">
         <v>1139</v>
       </c>
       <c r="D239" s="42" t="s">
@@ -14312,7 +14312,7 @@
       <c r="B240" s="34">
         <v>239</v>
       </c>
-      <c r="C240" s="112"/>
+      <c r="C240" s="104"/>
       <c r="D240" s="42" t="s">
         <v>1141</v>
       </c>
@@ -14329,7 +14329,7 @@
       <c r="B241" s="34">
         <v>240</v>
       </c>
-      <c r="C241" s="112"/>
+      <c r="C241" s="104"/>
       <c r="D241" s="42" t="s">
         <v>1142</v>
       </c>
@@ -14346,7 +14346,7 @@
       <c r="B242" s="34">
         <v>241</v>
       </c>
-      <c r="C242" s="112"/>
+      <c r="C242" s="104"/>
       <c r="D242" s="42" t="s">
         <v>1143</v>
       </c>
@@ -14363,7 +14363,7 @@
       <c r="B243" s="34">
         <v>242</v>
       </c>
-      <c r="C243" s="112"/>
+      <c r="C243" s="104"/>
       <c r="D243" s="42" t="s">
         <v>1144</v>
       </c>
@@ -14380,7 +14380,7 @@
       <c r="B244" s="34">
         <v>243</v>
       </c>
-      <c r="C244" s="112"/>
+      <c r="C244" s="104"/>
       <c r="D244" s="42" t="s">
         <v>1145</v>
       </c>
@@ -14397,7 +14397,7 @@
       <c r="B245" s="34">
         <v>244</v>
       </c>
-      <c r="C245" s="113"/>
+      <c r="C245" s="105"/>
       <c r="D245" s="42" t="s">
         <v>1146</v>
       </c>
@@ -14431,7 +14431,7 @@
       <c r="B247" s="34">
         <v>246</v>
       </c>
-      <c r="C247" s="114" t="s">
+      <c r="C247" s="106" t="s">
         <v>1148</v>
       </c>
       <c r="D247" s="42" t="s">
@@ -14450,7 +14450,7 @@
       <c r="B248" s="34">
         <v>247</v>
       </c>
-      <c r="C248" s="115"/>
+      <c r="C248" s="107"/>
       <c r="D248" s="42" t="s">
         <v>1150</v>
       </c>
@@ -14467,7 +14467,7 @@
       <c r="B249" s="34">
         <v>248</v>
       </c>
-      <c r="C249" s="115"/>
+      <c r="C249" s="107"/>
       <c r="D249" s="42" t="s">
         <v>1151</v>
       </c>
@@ -14484,7 +14484,7 @@
       <c r="B250" s="34">
         <v>249</v>
       </c>
-      <c r="C250" s="115"/>
+      <c r="C250" s="107"/>
       <c r="D250" s="42" t="s">
         <v>1152</v>
       </c>
@@ -14501,7 +14501,7 @@
       <c r="B251" s="34">
         <v>250</v>
       </c>
-      <c r="C251" s="116"/>
+      <c r="C251" s="108"/>
       <c r="D251" s="42" t="s">
         <v>1153</v>
       </c>
@@ -14518,7 +14518,7 @@
       <c r="B252" s="34">
         <v>251</v>
       </c>
-      <c r="C252" s="114" t="s">
+      <c r="C252" s="106" t="s">
         <v>1154</v>
       </c>
       <c r="D252" s="42"/>
@@ -14535,7 +14535,7 @@
       <c r="B253" s="34">
         <v>252</v>
       </c>
-      <c r="C253" s="115"/>
+      <c r="C253" s="107"/>
       <c r="D253" s="42"/>
       <c r="E253" s="49" t="s">
         <v>1055</v>
@@ -14550,7 +14550,7 @@
       <c r="B254" s="34">
         <v>253</v>
       </c>
-      <c r="C254" s="115"/>
+      <c r="C254" s="107"/>
       <c r="D254" s="42"/>
       <c r="E254" s="49" t="s">
         <v>1055</v>
@@ -14565,7 +14565,7 @@
       <c r="B255" s="34">
         <v>254</v>
       </c>
-      <c r="C255" s="115"/>
+      <c r="C255" s="107"/>
       <c r="D255" s="42"/>
       <c r="E255" s="49" t="s">
         <v>1055</v>
@@ -14580,7 +14580,7 @@
       <c r="B256" s="34">
         <v>255</v>
       </c>
-      <c r="C256" s="115"/>
+      <c r="C256" s="107"/>
       <c r="D256" s="42"/>
       <c r="E256" s="49" t="s">
         <v>1055</v>
@@ -14595,7 +14595,7 @@
       <c r="B257" s="34">
         <v>256</v>
       </c>
-      <c r="C257" s="115"/>
+      <c r="C257" s="107"/>
       <c r="D257" s="42"/>
       <c r="E257" s="49" t="s">
         <v>1055</v>
@@ -14610,7 +14610,7 @@
       <c r="B258" s="34">
         <v>257</v>
       </c>
-      <c r="C258" s="115"/>
+      <c r="C258" s="107"/>
       <c r="D258" s="42"/>
       <c r="E258" s="49" t="s">
         <v>1055</v>
@@ -14625,7 +14625,7 @@
       <c r="B259" s="34">
         <v>258</v>
       </c>
-      <c r="C259" s="115"/>
+      <c r="C259" s="107"/>
       <c r="D259" s="42"/>
       <c r="E259" s="49" t="s">
         <v>1055</v>
@@ -14640,7 +14640,7 @@
       <c r="B260" s="34">
         <v>259</v>
       </c>
-      <c r="C260" s="116"/>
+      <c r="C260" s="108"/>
       <c r="D260" s="42"/>
       <c r="E260" s="49" t="s">
         <v>1055</v>
@@ -16652,16 +16652,29 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C239:C245"/>
-    <mergeCell ref="C247:C251"/>
-    <mergeCell ref="C252:C260"/>
-    <mergeCell ref="C224:C233"/>
-    <mergeCell ref="C234:C238"/>
-    <mergeCell ref="C191:C196"/>
-    <mergeCell ref="C197:C206"/>
-    <mergeCell ref="C207:C212"/>
-    <mergeCell ref="C213:C216"/>
-    <mergeCell ref="C217:C223"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C62"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C11:C25"/>
+    <mergeCell ref="C26:C36"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="C79:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="C138:C142"/>
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="C148:C153"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C124:C131"/>
     <mergeCell ref="C177:C183"/>
     <mergeCell ref="C184:C190"/>
     <mergeCell ref="C170:C171"/>
@@ -16670,29 +16683,16 @@
     <mergeCell ref="C160:C163"/>
     <mergeCell ref="C164:C166"/>
     <mergeCell ref="C167:C169"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="C138:C142"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="C148:C153"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="C113:C118"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="C124:C131"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="C68:C78"/>
-    <mergeCell ref="C79:C87"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C62"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="C11:C25"/>
-    <mergeCell ref="C26:C36"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C191:C196"/>
+    <mergeCell ref="C197:C206"/>
+    <mergeCell ref="C207:C212"/>
+    <mergeCell ref="C213:C216"/>
+    <mergeCell ref="C217:C223"/>
+    <mergeCell ref="C239:C245"/>
+    <mergeCell ref="C247:C251"/>
+    <mergeCell ref="C252:C260"/>
+    <mergeCell ref="C224:C233"/>
+    <mergeCell ref="C234:C238"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16702,13 +16702,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L160"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16765,64 +16765,70 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87">
-        <v>1</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C2" s="89" t="s">
+    <row r="2" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>1167</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="13" t="s">
         <v>1165</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="25" t="s">
         <v>1166</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="53" t="s">
         <v>1170</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
-    </row>
-    <row r="3" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87">
-        <v>2</v>
-      </c>
-      <c r="B3" s="88" t="s">
+      <c r="G2" s="53" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>1168</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="16" t="s">
         <v>1167</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="13" t="s">
         <v>1165</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="25" t="s">
         <v>1166</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="53" t="s">
         <v>1169</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
+      <c r="G3" s="53" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>1320</v>
+      </c>
     </row>
     <row r="4" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>1365</v>
+        <v>1322</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>1167</v>
@@ -16834,7 +16840,7 @@
         <v>1166</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>1366</v>
+        <v>1170</v>
       </c>
       <c r="G4" s="92"/>
       <c r="H4" s="92"/>
@@ -16845,41 +16851,39 @@
     </row>
     <row r="5" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>1367</v>
+        <v>1168</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>1363</v>
+        <v>1167</v>
       </c>
       <c r="D5" s="90" t="s">
         <v>1165</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1326</v>
+        <v>1166</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="G5" s="92"/>
       <c r="H5" s="92"/>
       <c r="I5" s="92"/>
       <c r="J5" s="92"/>
       <c r="K5" s="92"/>
-      <c r="L5" s="93" t="s">
-        <v>1386</v>
-      </c>
+      <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>1350</v>
+        <v>1365</v>
       </c>
       <c r="C6" s="89" t="s">
-        <v>1364</v>
+        <v>1167</v>
       </c>
       <c r="D6" s="90" t="s">
         <v>1165</v>
@@ -16887,26 +16891,22 @@
       <c r="E6" s="91" t="s">
         <v>1166</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92" t="s">
-        <v>1347</v>
-      </c>
+      <c r="F6" s="92" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G6" s="92"/>
       <c r="H6" s="92"/>
-      <c r="I6" s="92" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J6" s="92" t="s">
-        <v>1345</v>
-      </c>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
       <c r="K6" s="92"/>
       <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>1175</v>
+        <v>1367</v>
       </c>
       <c r="C7" s="89" t="s">
         <v>1363</v>
@@ -16915,27 +16915,29 @@
         <v>1165</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F7" s="92"/>
+        <v>1326</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>1172</v>
+      </c>
       <c r="G7" s="92"/>
-      <c r="H7" s="92" t="s">
-        <v>1174</v>
-      </c>
+      <c r="H7" s="92"/>
       <c r="I7" s="92"/>
       <c r="J7" s="92"/>
       <c r="K7" s="92"/>
-      <c r="L7" s="93"/>
+      <c r="L7" s="93" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D8" s="90" t="s">
         <v>1165</v>
@@ -16944,21 +16946,25 @@
         <v>1166</v>
       </c>
       <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
+      <c r="G8" s="92" t="s">
+        <v>1347</v>
+      </c>
       <c r="H8" s="92"/>
       <c r="I8" s="92" t="s">
-        <v>1176</v>
-      </c>
-      <c r="J8" s="92"/>
+        <v>1346</v>
+      </c>
+      <c r="J8" s="92" t="s">
+        <v>1345</v>
+      </c>
       <c r="K8" s="92"/>
       <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>1349</v>
+        <v>1175</v>
       </c>
       <c r="C9" s="89" t="s">
         <v>1363</v>
@@ -16967,26 +16973,24 @@
         <v>1165</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>1326</v>
+        <v>1166</v>
       </c>
       <c r="F9" s="92"/>
-      <c r="G9" s="92" t="s">
-        <v>1351</v>
-      </c>
-      <c r="H9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92" t="s">
+        <v>1174</v>
+      </c>
       <c r="I9" s="92"/>
-      <c r="J9" s="92" t="s">
-        <v>1180</v>
-      </c>
+      <c r="J9" s="92"/>
       <c r="K9" s="92"/>
       <c r="L9" s="93"/>
     </row>
     <row r="10" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="87">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C10" s="89" t="s">
         <v>1363</v>
@@ -16998,23 +17002,21 @@
         <v>1166</v>
       </c>
       <c r="F10" s="92"/>
-      <c r="G10" s="92" t="s">
-        <v>1351</v>
-      </c>
+      <c r="G10" s="92"/>
       <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
+      <c r="I10" s="92" t="s">
+        <v>1176</v>
+      </c>
       <c r="J10" s="92"/>
       <c r="K10" s="92"/>
-      <c r="L10" s="93" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="93"/>
+    </row>
+    <row r="11" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
-        <v>10</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>1368</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>1349</v>
       </c>
       <c r="C11" s="89" t="s">
         <v>1363</v>
@@ -17026,80 +17028,82 @@
         <v>1326</v>
       </c>
       <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+      <c r="G11" s="92" t="s">
+        <v>1351</v>
+      </c>
       <c r="H11" s="92"/>
-      <c r="I11" s="92" t="s">
-        <v>1395</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="16"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
     </row>
     <row r="12" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="87">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>1369</v>
+        <v>1352</v>
       </c>
       <c r="C12" s="89" t="s">
         <v>1363</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>1326</v>
+        <v>1166</v>
       </c>
       <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
+      <c r="G12" s="92" t="s">
+        <v>1351</v>
+      </c>
       <c r="H12" s="92"/>
-      <c r="I12" s="92" t="s">
-        <v>1371</v>
-      </c>
-      <c r="J12" s="98" t="s">
-        <v>1370</v>
-      </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="93"/>
-    </row>
-    <row r="13" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="87">
-        <v>12</v>
-      </c>
-      <c r="B13" s="88" t="s">
-        <v>1372</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>1368</v>
       </c>
       <c r="C13" s="89" t="s">
-        <v>1167</v>
+        <v>1363</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="E13" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F13" s="92" t="s">
-        <v>1328</v>
-      </c>
+      <c r="F13" s="92"/>
       <c r="G13" s="92"/>
       <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="93"/>
+      <c r="I13" s="92" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K13" s="53"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="87">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>1178</v>
+        <v>1369</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>1167</v>
+        <v>1363</v>
       </c>
       <c r="D14" s="90" t="s">
         <v>1177</v>
@@ -17107,25 +17111,27 @@
       <c r="E14" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F14" s="92" t="s">
-        <v>1327</v>
-      </c>
+      <c r="F14" s="92"/>
       <c r="G14" s="92"/>
       <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
+      <c r="I14" s="92" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J14" s="98" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K14" s="99"/>
       <c r="L14" s="93"/>
     </row>
     <row r="15" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="87">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>1363</v>
+        <v>1167</v>
       </c>
       <c r="D15" s="90" t="s">
         <v>1177</v>
@@ -17134,7 +17140,7 @@
         <v>1326</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>1374</v>
+        <v>1328</v>
       </c>
       <c r="G15" s="92"/>
       <c r="H15" s="92"/>
@@ -17143,15 +17149,15 @@
       <c r="K15" s="92"/>
       <c r="L15" s="93"/>
     </row>
-    <row r="16" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="87">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>1373</v>
+        <v>1178</v>
       </c>
       <c r="C16" s="89" t="s">
-        <v>1363</v>
+        <v>1167</v>
       </c>
       <c r="D16" s="90" t="s">
         <v>1177</v>
@@ -17160,23 +17166,21 @@
         <v>1326</v>
       </c>
       <c r="F16" s="92" t="s">
-        <v>1353</v>
+        <v>1327</v>
       </c>
       <c r="G16" s="92"/>
       <c r="H16" s="92"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="16" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="12" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
+    </row>
+    <row r="17" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="87">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C17" s="89" t="s">
         <v>1363</v>
@@ -17187,22 +17191,22 @@
       <c r="E17" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F17" s="92"/>
+      <c r="F17" s="92" t="s">
+        <v>1374</v>
+      </c>
       <c r="G17" s="92"/>
       <c r="H17" s="92"/>
-      <c r="I17" s="92" t="s">
-        <v>1377</v>
-      </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="1:12" s="81" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+    </row>
+    <row r="18" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="87">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>1182</v>
+        <v>1373</v>
       </c>
       <c r="C18" s="89" t="s">
         <v>1363</v>
@@ -17213,48 +17217,50 @@
       <c r="E18" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F18" s="92"/>
+      <c r="F18" s="92" t="s">
+        <v>1353</v>
+      </c>
       <c r="G18" s="92"/>
       <c r="H18" s="92"/>
-      <c r="I18" s="92" t="s">
-        <v>1331</v>
-      </c>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="80"/>
-    </row>
-    <row r="19" spans="1:12" s="81" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="92"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="16" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="12" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="87">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="C19" s="89" t="s">
-        <v>1329</v>
+        <v>1363</v>
       </c>
       <c r="D19" s="90" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="E19" s="91" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F19" s="92" t="s">
-        <v>1391</v>
-      </c>
+        <v>1326</v>
+      </c>
+      <c r="F19" s="92"/>
       <c r="G19" s="92"/>
       <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="80"/>
-    </row>
-    <row r="20" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="92" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" s="81" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="87">
-        <v>19</v>
-      </c>
-      <c r="B20" s="100" t="s">
-        <v>1185</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>1182</v>
       </c>
       <c r="C20" s="89" t="s">
         <v>1363</v>
@@ -17269,46 +17275,44 @@
       <c r="G20" s="92"/>
       <c r="H20" s="92"/>
       <c r="I20" s="92" t="s">
-        <v>1332</v>
-      </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1331</v>
+      </c>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="80"/>
+    </row>
+    <row r="21" spans="1:12" s="81" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="87">
-        <v>20</v>
-      </c>
-      <c r="B21" s="100" t="s">
-        <v>1183</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>1390</v>
       </c>
       <c r="C21" s="89" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="E21" s="91" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F21" s="92"/>
+        <v>1166</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>1391</v>
+      </c>
       <c r="G21" s="92"/>
       <c r="H21" s="92"/>
-      <c r="I21" s="92" t="s">
-        <v>1333</v>
-      </c>
-      <c r="J21" s="66" t="s">
-        <v>1184</v>
-      </c>
-      <c r="K21" s="66"/>
-      <c r="L21" s="16"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="80"/>
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="87">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C22" s="89" t="s">
         <v>1363</v>
@@ -17323,48 +17327,46 @@
       <c r="G22" s="92"/>
       <c r="H22" s="92"/>
       <c r="I22" s="92" t="s">
-        <v>1334</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>1187</v>
-      </c>
-      <c r="K22" s="53"/>
+        <v>1332</v>
+      </c>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="16"/>
     </row>
     <row r="23" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="87">
-        <v>22</v>
-      </c>
-      <c r="B23" s="95" t="s">
-        <v>1188</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>1183</v>
       </c>
       <c r="C23" s="89" t="s">
         <v>1363</v>
       </c>
       <c r="D23" s="90" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="E23" s="91" t="s">
-        <v>1166</v>
+        <v>1326</v>
       </c>
       <c r="F23" s="92"/>
       <c r="G23" s="92"/>
       <c r="H23" s="92"/>
       <c r="I23" s="92" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J23" s="86" t="s">
-        <v>1355</v>
-      </c>
-      <c r="K23" s="86"/>
+        <v>1333</v>
+      </c>
+      <c r="J23" s="66" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K23" s="66"/>
       <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="87">
-        <v>23</v>
-      </c>
-      <c r="B24" s="95" t="s">
-        <v>1379</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>1186</v>
       </c>
       <c r="C24" s="89" t="s">
         <v>1363</v>
@@ -17379,50 +17381,48 @@
       <c r="G24" s="92"/>
       <c r="H24" s="92"/>
       <c r="I24" s="92" t="s">
-        <v>1380</v>
+        <v>1334</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>1381</v>
+        <v>1187</v>
       </c>
       <c r="K24" s="53"/>
       <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="87">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>1382</v>
+        <v>1188</v>
       </c>
       <c r="C25" s="89" t="s">
         <v>1363</v>
       </c>
       <c r="D25" s="90" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="E25" s="91" t="s">
-        <v>1326</v>
+        <v>1166</v>
       </c>
       <c r="F25" s="92"/>
       <c r="G25" s="92"/>
       <c r="H25" s="92"/>
       <c r="I25" s="92" t="s">
-        <v>1383</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>1335</v>
-      </c>
-      <c r="K25" s="53"/>
-      <c r="L25" s="17" t="s">
-        <v>1189</v>
-      </c>
+        <v>1356</v>
+      </c>
+      <c r="J25" s="86" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K25" s="86"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="87">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="C26" s="89" t="s">
         <v>1363</v>
@@ -17433,32 +17433,30 @@
       <c r="E26" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F26" s="92" t="s">
-        <v>1388</v>
-      </c>
+      <c r="F26" s="92"/>
       <c r="G26" s="92"/>
       <c r="H26" s="92"/>
       <c r="I26" s="92" t="s">
-        <v>1337</v>
+        <v>1380</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>1336</v>
+        <v>1381</v>
       </c>
       <c r="K26" s="53"/>
       <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="87">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>1338</v>
+        <v>1382</v>
       </c>
       <c r="C27" s="89" t="s">
         <v>1363</v>
       </c>
       <c r="D27" s="90" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="E27" s="91" t="s">
         <v>1326</v>
@@ -17467,22 +17465,22 @@
       <c r="G27" s="92"/>
       <c r="H27" s="92"/>
       <c r="I27" s="92" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>1190</v>
+        <v>1335</v>
       </c>
       <c r="K27" s="53"/>
-      <c r="L27" s="16" t="s">
-        <v>1384</v>
+      <c r="L27" s="17" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="87">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>1191</v>
+        <v>1387</v>
       </c>
       <c r="C28" s="89" t="s">
         <v>1363</v>
@@ -17493,30 +17491,32 @@
       <c r="E28" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F28" s="92"/>
+      <c r="F28" s="92" t="s">
+        <v>1388</v>
+      </c>
       <c r="G28" s="92"/>
       <c r="H28" s="92"/>
       <c r="I28" s="92" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="K28" s="53"/>
       <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="87">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>1192</v>
+        <v>1338</v>
       </c>
       <c r="C29" s="89" t="s">
         <v>1363</v>
       </c>
       <c r="D29" s="90" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="E29" s="91" t="s">
         <v>1326</v>
@@ -17525,20 +17525,22 @@
       <c r="G29" s="92"/>
       <c r="H29" s="92"/>
       <c r="I29" s="92" t="s">
-        <v>1342</v>
+        <v>1389</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>1341</v>
+        <v>1190</v>
       </c>
       <c r="K29" s="53"/>
-      <c r="L29" s="16"/>
+      <c r="L29" s="16" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="30" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="87">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C30" s="89" t="s">
         <v>1363</v>
@@ -17553,102 +17555,102 @@
       <c r="G30" s="92"/>
       <c r="H30" s="92"/>
       <c r="I30" s="92" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="K30" s="53"/>
       <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="87">
-        <v>30</v>
-      </c>
-      <c r="B31" s="100" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C31" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C31" s="89" t="s">
         <v>1363</v>
       </c>
-      <c r="D31" s="101" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F31" s="92" t="s">
-        <v>1394</v>
-      </c>
+      <c r="D31" s="90" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E31" s="91" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F31" s="92"/>
       <c r="G31" s="92"/>
       <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="53"/>
+      <c r="I31" s="92" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>1341</v>
+      </c>
       <c r="K31" s="53"/>
       <c r="L31" s="16"/>
     </row>
-    <row r="32" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="87">
-        <v>31</v>
-      </c>
-      <c r="B32" s="100" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C32" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="95" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C32" s="89" t="s">
         <v>1363</v>
       </c>
-      <c r="D32" s="101" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E32" s="87" t="s">
+      <c r="D32" s="90" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E32" s="91" t="s">
         <v>1326</v>
       </c>
       <c r="F32" s="92"/>
       <c r="G32" s="92"/>
       <c r="H32" s="92"/>
       <c r="I32" s="92" t="s">
-        <v>1396</v>
-      </c>
-      <c r="J32" s="92" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K32" s="92"/>
-      <c r="L32" s="93"/>
-    </row>
-    <row r="33" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1344</v>
+      </c>
+      <c r="J32" s="53" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K32" s="53"/>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="87">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>1197</v>
+        <v>1393</v>
       </c>
       <c r="C33" s="93" t="s">
         <v>1363</v>
       </c>
       <c r="D33" s="101" t="s">
-        <v>1194</v>
+        <v>1165</v>
       </c>
       <c r="E33" s="87" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F33" s="92"/>
+        <v>1166</v>
+      </c>
+      <c r="F33" s="92" t="s">
+        <v>1394</v>
+      </c>
       <c r="G33" s="92"/>
       <c r="H33" s="92"/>
-      <c r="I33" s="92" t="s">
-        <v>1397</v>
-      </c>
-      <c r="J33" s="92" t="s">
-        <v>1196</v>
-      </c>
-      <c r="K33" s="92"/>
-      <c r="L33" s="93"/>
-    </row>
-    <row r="34" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="92"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="87">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>1198</v>
+        <v>1420</v>
       </c>
       <c r="C34" s="93" t="s">
         <v>1363</v>
@@ -17663,20 +17665,20 @@
       <c r="G34" s="92"/>
       <c r="H34" s="92"/>
       <c r="I34" s="92" t="s">
-        <v>1398</v>
-      </c>
-      <c r="J34" s="53" t="s">
-        <v>1199</v>
-      </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="16"/>
-    </row>
-    <row r="35" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1396</v>
+      </c>
+      <c r="J34" s="92" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
+    </row>
+    <row r="35" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="87">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>1419</v>
+        <v>1197</v>
       </c>
       <c r="C35" s="93" t="s">
         <v>1363</v>
@@ -17691,20 +17693,20 @@
       <c r="G35" s="92"/>
       <c r="H35" s="92"/>
       <c r="I35" s="92" t="s">
-        <v>1399</v>
-      </c>
-      <c r="J35" s="53" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="16"/>
-    </row>
-    <row r="36" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1397</v>
+      </c>
+      <c r="J35" s="92" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
+    </row>
+    <row r="36" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="87">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C36" s="93" t="s">
         <v>1363</v>
@@ -17719,23 +17721,23 @@
       <c r="G36" s="92"/>
       <c r="H36" s="92"/>
       <c r="I36" s="92" t="s">
-        <v>1400</v>
-      </c>
-      <c r="J36" s="92" t="s">
-        <v>1202</v>
-      </c>
-      <c r="K36" s="92"/>
-      <c r="L36" s="93"/>
+        <v>1398</v>
+      </c>
+      <c r="J36" s="53" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K36" s="53"/>
+      <c r="L36" s="16"/>
     </row>
     <row r="37" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="87">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="100" t="s">
-        <v>1033</v>
+        <v>1419</v>
       </c>
       <c r="C37" s="93" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D37" s="101" t="s">
         <v>1194</v>
@@ -17747,20 +17749,20 @@
       <c r="G37" s="92"/>
       <c r="H37" s="92"/>
       <c r="I37" s="92" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="K37" s="53"/>
       <c r="L37" s="16"/>
     </row>
     <row r="38" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="87">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>1421</v>
+        <v>1201</v>
       </c>
       <c r="C38" s="93" t="s">
         <v>1363</v>
@@ -17775,23 +17777,23 @@
       <c r="G38" s="92"/>
       <c r="H38" s="92"/>
       <c r="I38" s="92" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J38" s="92" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="K38" s="92"/>
       <c r="L38" s="93"/>
     </row>
     <row r="39" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="87">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="100" t="s">
-        <v>1422</v>
+        <v>1033</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D39" s="101" t="s">
         <v>1194</v>
@@ -17803,23 +17805,23 @@
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
       <c r="I39" s="92" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="K39" s="53"/>
       <c r="L39" s="16"/>
     </row>
     <row r="40" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="87">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="100" t="s">
-        <v>1214</v>
+        <v>1421</v>
       </c>
       <c r="C40" s="93" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D40" s="101" t="s">
         <v>1194</v>
@@ -17831,20 +17833,20 @@
       <c r="G40" s="92"/>
       <c r="H40" s="92"/>
       <c r="I40" s="92" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="J40" s="92" t="s">
-        <v>1412</v>
+        <v>1204</v>
       </c>
       <c r="K40" s="92"/>
       <c r="L40" s="93"/>
     </row>
-    <row r="41" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="87">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="100" t="s">
-        <v>1206</v>
+        <v>1422</v>
       </c>
       <c r="C41" s="93" t="s">
         <v>1363</v>
@@ -17859,23 +17861,23 @@
       <c r="G41" s="92"/>
       <c r="H41" s="92"/>
       <c r="I41" s="92" t="s">
-        <v>1414</v>
-      </c>
-      <c r="J41" s="92" t="s">
-        <v>1215</v>
-      </c>
-      <c r="K41" s="92"/>
-      <c r="L41" s="93"/>
+        <v>1403</v>
+      </c>
+      <c r="J41" s="53" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K41" s="53"/>
+      <c r="L41" s="16"/>
     </row>
     <row r="42" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="87">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>1423</v>
+        <v>1214</v>
       </c>
       <c r="C42" s="93" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D42" s="101" t="s">
         <v>1194</v>
@@ -17887,20 +17889,20 @@
       <c r="G42" s="92"/>
       <c r="H42" s="92"/>
       <c r="I42" s="92" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
       <c r="J42" s="92" t="s">
-        <v>1216</v>
+        <v>1412</v>
       </c>
       <c r="K42" s="92"/>
       <c r="L42" s="93"/>
     </row>
     <row r="43" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="87">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="100" t="s">
-        <v>1425</v>
+        <v>1206</v>
       </c>
       <c r="C43" s="93" t="s">
         <v>1363</v>
@@ -17915,23 +17917,23 @@
       <c r="G43" s="92"/>
       <c r="H43" s="92"/>
       <c r="I43" s="92" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J43" s="92" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="K43" s="92"/>
       <c r="L43" s="93"/>
     </row>
     <row r="44" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="100" t="s">
-        <v>1207</v>
+        <v>1423</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>1329</v>
+        <v>1363</v>
       </c>
       <c r="D44" s="101" t="s">
         <v>1194</v>
@@ -17943,21 +17945,23 @@
       <c r="G44" s="92"/>
       <c r="H44" s="92"/>
       <c r="I44" s="92" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J44" s="92"/>
+        <v>1424</v>
+      </c>
+      <c r="J44" s="92" t="s">
+        <v>1216</v>
+      </c>
       <c r="K44" s="92"/>
       <c r="L44" s="93"/>
     </row>
     <row r="45" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="87">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="100" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>1329</v>
+        <v>1363</v>
       </c>
       <c r="D45" s="101" t="s">
         <v>1194</v>
@@ -17969,18 +17973,20 @@
       <c r="G45" s="92"/>
       <c r="H45" s="92"/>
       <c r="I45" s="92" t="s">
-        <v>1404</v>
-      </c>
-      <c r="J45" s="92"/>
+        <v>1415</v>
+      </c>
+      <c r="J45" s="92" t="s">
+        <v>1217</v>
+      </c>
       <c r="K45" s="92"/>
       <c r="L45" s="93"/>
     </row>
     <row r="46" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="87">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="100" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="C46" s="93" t="s">
         <v>1329</v>
@@ -17995,23 +18001,21 @@
       <c r="G46" s="92"/>
       <c r="H46" s="92"/>
       <c r="I46" s="92" t="s">
-        <v>1405</v>
-      </c>
-      <c r="J46" s="92" t="s">
-        <v>1220</v>
-      </c>
+        <v>1426</v>
+      </c>
+      <c r="J46" s="92"/>
       <c r="K46" s="92"/>
       <c r="L46" s="93"/>
     </row>
     <row r="47" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="87">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="100" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C47" s="93" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
       <c r="D47" s="101" t="s">
         <v>1194</v>
@@ -18023,23 +18027,21 @@
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
       <c r="I47" s="92" t="s">
-        <v>1406</v>
-      </c>
-      <c r="J47" s="92" t="s">
-        <v>1221</v>
-      </c>
+        <v>1404</v>
+      </c>
+      <c r="J47" s="92"/>
       <c r="K47" s="92"/>
       <c r="L47" s="93"/>
     </row>
     <row r="48" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="87">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="100" t="s">
-        <v>1429</v>
+        <v>1219</v>
       </c>
       <c r="C48" s="93" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
       <c r="D48" s="101" t="s">
         <v>1194</v>
@@ -18051,18 +18053,20 @@
       <c r="G48" s="92"/>
       <c r="H48" s="92"/>
       <c r="I48" s="92" t="s">
-        <v>1407</v>
-      </c>
-      <c r="J48" s="92"/>
+        <v>1405</v>
+      </c>
+      <c r="J48" s="92" t="s">
+        <v>1220</v>
+      </c>
       <c r="K48" s="92"/>
       <c r="L48" s="93"/>
     </row>
     <row r="49" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="87">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="100" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C49" s="93" t="s">
         <v>1363</v>
@@ -18077,18 +18081,20 @@
       <c r="G49" s="92"/>
       <c r="H49" s="92"/>
       <c r="I49" s="92" t="s">
-        <v>1408</v>
-      </c>
-      <c r="J49" s="92"/>
+        <v>1406</v>
+      </c>
+      <c r="J49" s="92" t="s">
+        <v>1221</v>
+      </c>
       <c r="K49" s="92"/>
       <c r="L49" s="93"/>
     </row>
     <row r="50" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="87">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="100" t="s">
-        <v>1224</v>
+        <v>1429</v>
       </c>
       <c r="C50" s="93" t="s">
         <v>1363</v>
@@ -18103,22 +18109,18 @@
       <c r="G50" s="92"/>
       <c r="H50" s="92"/>
       <c r="I50" s="92" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J50" s="92" t="s">
-        <v>1222</v>
-      </c>
+        <v>1407</v>
+      </c>
+      <c r="J50" s="92"/>
       <c r="K50" s="92"/>
-      <c r="L50" s="93" t="s">
-        <v>1409</v>
-      </c>
+      <c r="L50" s="93"/>
     </row>
     <row r="51" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="87">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>1208</v>
+        <v>1430</v>
       </c>
       <c r="C51" s="93" t="s">
         <v>1363</v>
@@ -18133,20 +18135,18 @@
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
       <c r="I51" s="92" t="s">
-        <v>1416</v>
-      </c>
-      <c r="J51" s="92" t="s">
-        <v>1223</v>
-      </c>
+        <v>1408</v>
+      </c>
+      <c r="J51" s="92"/>
       <c r="K51" s="92"/>
       <c r="L51" s="93"/>
     </row>
     <row r="52" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="87">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>1410</v>
+        <v>1224</v>
       </c>
       <c r="C52" s="93" t="s">
         <v>1363</v>
@@ -18161,18 +18161,22 @@
       <c r="G52" s="92"/>
       <c r="H52" s="92"/>
       <c r="I52" s="92" t="s">
-        <v>1411</v>
-      </c>
-      <c r="J52" s="92"/>
+        <v>1417</v>
+      </c>
+      <c r="J52" s="92" t="s">
+        <v>1222</v>
+      </c>
       <c r="K52" s="92"/>
-      <c r="L52" s="93"/>
+      <c r="L52" s="93" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="53" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="87">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>1431</v>
+        <v>1208</v>
       </c>
       <c r="C53" s="93" t="s">
         <v>1363</v>
@@ -18187,68 +18191,74 @@
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
       <c r="I53" s="92" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="J53" s="92" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="K53" s="92"/>
       <c r="L53" s="93"/>
     </row>
-    <row r="54" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="87">
-        <v>53</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="73" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E54" s="56"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="86" t="s">
-        <v>1330</v>
-      </c>
-      <c r="J54" s="53" t="s">
-        <v>1255</v>
-      </c>
-      <c r="K54" s="53"/>
-      <c r="L54" s="16"/>
-    </row>
-    <row r="55" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="100" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C54" s="93" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D54" s="101" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E54" s="87" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="93"/>
+    </row>
+    <row r="55" spans="1:12" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="87">
-        <v>54</v>
-      </c>
-      <c r="B55" s="68" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="73" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E55" s="56"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="86" t="s">
-        <v>1330</v>
-      </c>
-      <c r="J55" s="53" t="s">
-        <v>1256</v>
-      </c>
-      <c r="K55" s="53"/>
-      <c r="L55" s="16"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="100" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C55" s="93" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D55" s="101" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E55" s="87" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J55" s="92" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K55" s="92"/>
+      <c r="L55" s="93"/>
     </row>
     <row r="56" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="87">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="68" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="73" t="s">
@@ -18262,17 +18272,17 @@
         <v>1330</v>
       </c>
       <c r="J56" s="53" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="K56" s="53"/>
       <c r="L56" s="16"/>
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="87">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="68" t="s">
-        <v>1259</v>
+        <v>1227</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="73" t="s">
@@ -18286,17 +18296,17 @@
         <v>1330</v>
       </c>
       <c r="J57" s="53" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="K57" s="53"/>
       <c r="L57" s="16"/>
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="87">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="68" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="73" t="s">
@@ -18310,17 +18320,17 @@
         <v>1330</v>
       </c>
       <c r="J58" s="53" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="K58" s="53"/>
       <c r="L58" s="16"/>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="87">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>1294</v>
+        <v>1259</v>
       </c>
       <c r="C59" s="55"/>
       <c r="D59" s="73" t="s">
@@ -18334,20 +18344,22 @@
         <v>1330</v>
       </c>
       <c r="J59" s="53" t="s">
-        <v>1295</v>
+        <v>1260</v>
       </c>
       <c r="K59" s="53"/>
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="87">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="68" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C60" s="55"/>
-      <c r="D60" s="73"/>
+      <c r="D60" s="73" t="s">
+        <v>1226</v>
+      </c>
       <c r="E60" s="56"/>
       <c r="F60" s="53"/>
       <c r="G60" s="53"/>
@@ -18356,17 +18368,17 @@
         <v>1330</v>
       </c>
       <c r="J60" s="53" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="K60" s="53"/>
       <c r="L60" s="16"/>
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="87">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="68" t="s">
-        <v>1228</v>
+        <v>1294</v>
       </c>
       <c r="C61" s="55"/>
       <c r="D61" s="73" t="s">
@@ -18380,22 +18392,20 @@
         <v>1330</v>
       </c>
       <c r="J61" s="53" t="s">
-        <v>1265</v>
+        <v>1295</v>
       </c>
       <c r="K61" s="53"/>
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="87">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="68" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="C62" s="55"/>
-      <c r="D62" s="73" t="s">
-        <v>1226</v>
-      </c>
+      <c r="D62" s="73"/>
       <c r="E62" s="56"/>
       <c r="F62" s="53"/>
       <c r="G62" s="53"/>
@@ -18404,17 +18414,17 @@
         <v>1330</v>
       </c>
       <c r="J62" s="53" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="K62" s="53"/>
       <c r="L62" s="16"/>
     </row>
     <row r="63" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="87">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="68" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C63" s="55"/>
       <c r="D63" s="73" t="s">
@@ -18428,17 +18438,17 @@
         <v>1330</v>
       </c>
       <c r="J63" s="53" t="s">
-        <v>1230</v>
+        <v>1265</v>
       </c>
       <c r="K63" s="53"/>
       <c r="L63" s="16"/>
     </row>
     <row r="64" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="87">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="68" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="73" t="s">
@@ -18452,17 +18462,17 @@
         <v>1330</v>
       </c>
       <c r="J64" s="53" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="K64" s="53"/>
       <c r="L64" s="16"/>
     </row>
     <row r="65" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="87">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="73" t="s">
@@ -18475,18 +18485,18 @@
       <c r="I65" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J65" s="64" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K65" s="64"/>
+      <c r="J65" s="53" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K65" s="53"/>
       <c r="L65" s="16"/>
     </row>
     <row r="66" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="87">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="73" t="s">
@@ -18500,20 +18510,22 @@
         <v>1330</v>
       </c>
       <c r="J66" s="53" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="K66" s="53"/>
       <c r="L66" s="16"/>
     </row>
     <row r="67" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="87">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="68" t="s">
-        <v>1306</v>
+        <v>1231</v>
       </c>
       <c r="C67" s="55"/>
-      <c r="D67" s="73"/>
+      <c r="D67" s="73" t="s">
+        <v>1226</v>
+      </c>
       <c r="E67" s="56"/>
       <c r="F67" s="53"/>
       <c r="G67" s="53"/>
@@ -18521,21 +18533,23 @@
       <c r="I67" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J67" s="53" t="s">
-        <v>1305</v>
-      </c>
-      <c r="K67" s="53"/>
+      <c r="J67" s="64" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K67" s="64"/>
       <c r="L67" s="16"/>
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="87">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" s="68" t="s">
-        <v>1307</v>
+        <v>1271</v>
       </c>
       <c r="C68" s="55"/>
-      <c r="D68" s="73"/>
+      <c r="D68" s="73" t="s">
+        <v>1226</v>
+      </c>
       <c r="E68" s="56"/>
       <c r="F68" s="53"/>
       <c r="G68" s="53"/>
@@ -18544,17 +18558,17 @@
         <v>1330</v>
       </c>
       <c r="J68" s="53" t="s">
-        <v>1308</v>
+        <v>1272</v>
       </c>
       <c r="K68" s="53"/>
       <c r="L68" s="16"/>
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="87">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="68" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="C69" s="55"/>
       <c r="D69" s="73"/>
@@ -18566,17 +18580,17 @@
         <v>1330</v>
       </c>
       <c r="J69" s="53" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="K69" s="53"/>
       <c r="L69" s="16"/>
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="87">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" s="68" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C70" s="55"/>
       <c r="D70" s="73"/>
@@ -18588,17 +18602,17 @@
         <v>1330</v>
       </c>
       <c r="J70" s="53" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="K70" s="53"/>
       <c r="L70" s="16"/>
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="87">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71" s="68" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="C71" s="55"/>
       <c r="D71" s="73"/>
@@ -18610,17 +18624,17 @@
         <v>1330</v>
       </c>
       <c r="J71" s="53" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="K71" s="53"/>
       <c r="L71" s="16"/>
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="87">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" s="68" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="73"/>
@@ -18632,19 +18646,17 @@
         <v>1330</v>
       </c>
       <c r="J72" s="53" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="K72" s="53"/>
-      <c r="L72" s="16" t="s">
-        <v>1315</v>
-      </c>
+      <c r="L72" s="16"/>
     </row>
     <row r="73" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="87">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" s="68" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="73"/>
@@ -18656,22 +18668,20 @@
         <v>1330</v>
       </c>
       <c r="J73" s="53" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="K73" s="53"/>
       <c r="L73" s="16"/>
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="87">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" s="68" t="s">
-        <v>1233</v>
+        <v>1313</v>
       </c>
       <c r="C74" s="55"/>
-      <c r="D74" s="73" t="s">
-        <v>1226</v>
-      </c>
+      <c r="D74" s="73"/>
       <c r="E74" s="56"/>
       <c r="F74" s="53"/>
       <c r="G74" s="53"/>
@@ -18680,22 +18690,22 @@
         <v>1330</v>
       </c>
       <c r="J74" s="53" t="s">
-        <v>1273</v>
+        <v>1314</v>
       </c>
       <c r="K74" s="53"/>
-      <c r="L74" s="16"/>
+      <c r="L74" s="16" t="s">
+        <v>1315</v>
+      </c>
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="87">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" s="68" t="s">
-        <v>1234</v>
+        <v>1318</v>
       </c>
       <c r="C75" s="55"/>
-      <c r="D75" s="73" t="s">
-        <v>1226</v>
-      </c>
+      <c r="D75" s="73"/>
       <c r="E75" s="56"/>
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
@@ -18704,17 +18714,17 @@
         <v>1330</v>
       </c>
       <c r="J75" s="53" t="s">
-        <v>1274</v>
+        <v>1319</v>
       </c>
       <c r="K75" s="53"/>
       <c r="L75" s="16"/>
     </row>
     <row r="76" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="87">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="68" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C76" s="55"/>
       <c r="D76" s="73" t="s">
@@ -18728,17 +18738,17 @@
         <v>1330</v>
       </c>
       <c r="J76" s="53" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="K76" s="53"/>
       <c r="L76" s="16"/>
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="87">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="68" t="s">
-        <v>1276</v>
+        <v>1234</v>
       </c>
       <c r="C77" s="55"/>
       <c r="D77" s="73" t="s">
@@ -18752,17 +18762,17 @@
         <v>1330</v>
       </c>
       <c r="J77" s="53" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="K77" s="53"/>
       <c r="L77" s="16"/>
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="87">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" s="68" t="s">
-        <v>1278</v>
+        <v>1235</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="73" t="s">
@@ -18776,17 +18786,17 @@
         <v>1330</v>
       </c>
       <c r="J78" s="53" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="K78" s="53"/>
       <c r="L78" s="16"/>
     </row>
     <row r="79" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="87">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="68" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C79" s="55"/>
       <c r="D79" s="73" t="s">
@@ -18800,39 +18810,41 @@
         <v>1330</v>
       </c>
       <c r="J79" s="53" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="K79" s="53"/>
       <c r="L79" s="16"/>
     </row>
-    <row r="80" spans="1:12" s="78" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="87">
-        <v>79</v>
-      </c>
-      <c r="B80" s="74" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C80" s="73"/>
+        <v>77</v>
+      </c>
+      <c r="B80" s="68" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C80" s="55"/>
       <c r="D80" s="73" t="s">
         <v>1226</v>
       </c>
-      <c r="E80" s="75"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
-      <c r="H80" s="76"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
       <c r="I80" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J80" s="76"/>
-      <c r="K80" s="76"/>
-      <c r="L80" s="77"/>
+      <c r="J80" s="53" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K80" s="53"/>
+      <c r="L80" s="16"/>
     </row>
     <row r="81" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="87">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" s="68" t="s">
-        <v>1237</v>
+        <v>1280</v>
       </c>
       <c r="C81" s="55"/>
       <c r="D81" s="73" t="s">
@@ -18846,65 +18858,63 @@
         <v>1330</v>
       </c>
       <c r="J81" s="53" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K81" s="53"/>
       <c r="L81" s="16"/>
     </row>
-    <row r="82" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" s="78" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="87">
-        <v>81</v>
-      </c>
-      <c r="B82" s="68" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C82" s="55"/>
+        <v>79</v>
+      </c>
+      <c r="B82" s="74" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C82" s="73"/>
       <c r="D82" s="73" t="s">
         <v>1226</v>
       </c>
-      <c r="E82" s="56"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
       <c r="I82" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J82" s="53" t="s">
-        <v>1283</v>
-      </c>
-      <c r="K82" s="53"/>
-      <c r="L82" s="16"/>
-    </row>
-    <row r="83" spans="1:12" s="78" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J82" s="76"/>
+      <c r="K82" s="76"/>
+      <c r="L82" s="77"/>
+    </row>
+    <row r="83" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="87">
-        <v>82</v>
-      </c>
-      <c r="B83" s="74" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C83" s="73"/>
+        <v>80</v>
+      </c>
+      <c r="B83" s="68" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C83" s="55"/>
       <c r="D83" s="73" t="s">
         <v>1226</v>
       </c>
-      <c r="E83" s="75"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="53"/>
       <c r="I83" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J83" s="76" t="s">
-        <v>1284</v>
-      </c>
-      <c r="K83" s="76"/>
-      <c r="L83" s="77"/>
+      <c r="J83" s="53" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K83" s="53"/>
+      <c r="L83" s="16"/>
     </row>
     <row r="84" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="87">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="68" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C84" s="55"/>
       <c r="D84" s="73" t="s">
@@ -18918,41 +18928,41 @@
         <v>1330</v>
       </c>
       <c r="J84" s="53" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="K84" s="53"/>
       <c r="L84" s="16"/>
     </row>
-    <row r="85" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" s="78" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="87">
-        <v>84</v>
-      </c>
-      <c r="B85" s="68" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C85" s="55"/>
+        <v>82</v>
+      </c>
+      <c r="B85" s="74" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C85" s="73"/>
       <c r="D85" s="73" t="s">
         <v>1226</v>
       </c>
-      <c r="E85" s="56"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
       <c r="I85" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J85" s="53" t="s">
-        <v>1286</v>
-      </c>
-      <c r="K85" s="53"/>
-      <c r="L85" s="16"/>
+      <c r="J85" s="76" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K85" s="76"/>
+      <c r="L85" s="77"/>
     </row>
     <row r="86" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="87">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" s="68" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="73" t="s">
@@ -18966,17 +18976,17 @@
         <v>1330</v>
       </c>
       <c r="J86" s="53" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K86" s="53"/>
       <c r="L86" s="16"/>
     </row>
     <row r="87" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="87">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" s="68" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C87" s="55"/>
       <c r="D87" s="73" t="s">
@@ -18990,39 +19000,41 @@
         <v>1330</v>
       </c>
       <c r="J87" s="53" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="K87" s="53"/>
       <c r="L87" s="16"/>
     </row>
-    <row r="88" spans="1:12" s="78" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="87">
-        <v>87</v>
-      </c>
-      <c r="B88" s="74" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C88" s="73"/>
+        <v>85</v>
+      </c>
+      <c r="B88" s="68" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C88" s="55"/>
       <c r="D88" s="73" t="s">
         <v>1226</v>
       </c>
-      <c r="E88" s="75"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="76"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
       <c r="I88" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J88" s="76"/>
-      <c r="K88" s="76"/>
-      <c r="L88" s="77"/>
+      <c r="J88" s="53" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K88" s="53"/>
+      <c r="L88" s="16"/>
     </row>
     <row r="89" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="87">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" s="68" t="s">
-        <v>1289</v>
+        <v>1243</v>
       </c>
       <c r="C89" s="55"/>
       <c r="D89" s="73" t="s">
@@ -19036,41 +19048,39 @@
         <v>1330</v>
       </c>
       <c r="J89" s="53" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="K89" s="53"/>
       <c r="L89" s="16"/>
     </row>
-    <row r="90" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" s="78" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="87">
-        <v>89</v>
-      </c>
-      <c r="B90" s="68" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C90" s="55"/>
+        <v>87</v>
+      </c>
+      <c r="B90" s="74" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C90" s="73"/>
       <c r="D90" s="73" t="s">
         <v>1226</v>
       </c>
-      <c r="E90" s="56"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
       <c r="I90" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J90" s="53" t="s">
-        <v>1292</v>
-      </c>
-      <c r="K90" s="53"/>
-      <c r="L90" s="16"/>
+      <c r="J90" s="76"/>
+      <c r="K90" s="76"/>
+      <c r="L90" s="77"/>
     </row>
     <row r="91" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="87">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91" s="68" t="s">
-        <v>1245</v>
+        <v>1289</v>
       </c>
       <c r="C91" s="55"/>
       <c r="D91" s="73" t="s">
@@ -19083,22 +19093,22 @@
       <c r="I91" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J91" s="65" t="s">
-        <v>1293</v>
-      </c>
-      <c r="K91" s="65"/>
+      <c r="J91" s="53" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K91" s="53"/>
       <c r="L91" s="16"/>
     </row>
     <row r="92" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="87">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92" s="68" t="s">
-        <v>1246</v>
+        <v>1291</v>
       </c>
       <c r="C92" s="55"/>
       <c r="D92" s="73" t="s">
-        <v>1250</v>
+        <v>1226</v>
       </c>
       <c r="E92" s="56"/>
       <c r="F92" s="53"/>
@@ -19108,21 +19118,21 @@
         <v>1330</v>
       </c>
       <c r="J92" s="53" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="K92" s="53"/>
       <c r="L92" s="16"/>
     </row>
     <row r="93" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="87">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="68" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C93" s="55"/>
       <c r="D93" s="73" t="s">
-        <v>1250</v>
+        <v>1226</v>
       </c>
       <c r="E93" s="56"/>
       <c r="F93" s="53"/>
@@ -19131,18 +19141,18 @@
       <c r="I93" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J93" s="53" t="s">
-        <v>1297</v>
-      </c>
-      <c r="K93" s="53"/>
+      <c r="J93" s="65" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K93" s="65"/>
       <c r="L93" s="16"/>
     </row>
     <row r="94" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="87">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" s="68" t="s">
-        <v>1298</v>
+        <v>1246</v>
       </c>
       <c r="C94" s="55"/>
       <c r="D94" s="73" t="s">
@@ -19156,17 +19166,17 @@
         <v>1330</v>
       </c>
       <c r="J94" s="53" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="K94" s="53"/>
       <c r="L94" s="16"/>
     </row>
     <row r="95" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="87">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" s="68" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="73" t="s">
@@ -19180,17 +19190,17 @@
         <v>1330</v>
       </c>
       <c r="J95" s="53" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="K95" s="53"/>
       <c r="L95" s="16"/>
     </row>
     <row r="96" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="87">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B96" s="68" t="s">
-        <v>1249</v>
+        <v>1298</v>
       </c>
       <c r="C96" s="55"/>
       <c r="D96" s="73" t="s">
@@ -19204,17 +19214,17 @@
         <v>1330</v>
       </c>
       <c r="J96" s="53" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="K96" s="53"/>
       <c r="L96" s="16"/>
     </row>
     <row r="97" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="87">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" s="68" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C97" s="55"/>
       <c r="D97" s="73" t="s">
@@ -19228,17 +19238,17 @@
         <v>1330</v>
       </c>
       <c r="J97" s="53" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="K97" s="53"/>
       <c r="L97" s="16"/>
     </row>
     <row r="98" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="87">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B98" s="68" t="s">
-        <v>1303</v>
+        <v>1249</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="73" t="s">
@@ -19252,39 +19262,41 @@
         <v>1330</v>
       </c>
       <c r="J98" s="53" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="K98" s="53"/>
       <c r="L98" s="16"/>
     </row>
-    <row r="99" spans="1:12" s="78" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="87">
-        <v>98</v>
-      </c>
-      <c r="B99" s="74" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C99" s="73"/>
+        <v>96</v>
+      </c>
+      <c r="B99" s="68" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C99" s="55"/>
       <c r="D99" s="73" t="s">
         <v>1250</v>
       </c>
-      <c r="E99" s="75"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="76"/>
-      <c r="H99" s="76"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="53"/>
       <c r="I99" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J99" s="76"/>
-      <c r="K99" s="76"/>
-      <c r="L99" s="77"/>
+      <c r="J99" s="53" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K99" s="53"/>
+      <c r="L99" s="16"/>
     </row>
     <row r="100" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="87">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B100" s="68" t="s">
-        <v>1253</v>
+        <v>1303</v>
       </c>
       <c r="C100" s="55"/>
       <c r="D100" s="73" t="s">
@@ -19297,42 +19309,44 @@
       <c r="I100" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J100" s="53"/>
+      <c r="J100" s="53" t="s">
+        <v>1304</v>
+      </c>
       <c r="K100" s="53"/>
       <c r="L100" s="16"/>
     </row>
-    <row r="101" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" s="78" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="87">
-        <v>100</v>
-      </c>
-      <c r="B101" s="68" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E101" s="56"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
+        <v>98</v>
+      </c>
+      <c r="B101" s="74" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E101" s="75"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
       <c r="I101" s="86" t="s">
         <v>1330</v>
       </c>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="16"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="76"/>
+      <c r="L101" s="77"/>
     </row>
     <row r="102" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="87">
-        <v>101</v>
-      </c>
-      <c r="B102" s="67" t="s">
-        <v>1211</v>
+        <v>99</v>
+      </c>
+      <c r="B102" s="68" t="s">
+        <v>1253</v>
       </c>
       <c r="C102" s="55"/>
-      <c r="D102" s="55" t="s">
-        <v>1209</v>
+      <c r="D102" s="73" t="s">
+        <v>1250</v>
       </c>
       <c r="E102" s="56"/>
       <c r="F102" s="53"/>
@@ -19347,10 +19361,10 @@
     </row>
     <row r="103" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="87">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B103" s="68" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C103" s="55"/>
       <c r="D103" s="55" t="s">
@@ -19369,10 +19383,10 @@
     </row>
     <row r="104" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="87">
-        <v>103</v>
-      </c>
-      <c r="B104" s="68" t="s">
-        <v>1213</v>
+        <v>101</v>
+      </c>
+      <c r="B104" s="67" t="s">
+        <v>1211</v>
       </c>
       <c r="C104" s="55"/>
       <c r="D104" s="55" t="s">
@@ -19391,10 +19405,10 @@
     </row>
     <row r="105" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="87">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B105" s="68" t="s">
-        <v>949</v>
+        <v>1212</v>
       </c>
       <c r="C105" s="55"/>
       <c r="D105" s="55" t="s">
@@ -19413,10 +19427,10 @@
     </row>
     <row r="106" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="87">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B106" s="68" t="s">
-        <v>932</v>
+        <v>1213</v>
       </c>
       <c r="C106" s="55"/>
       <c r="D106" s="55" t="s">
@@ -19435,10 +19449,10 @@
     </row>
     <row r="107" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="87">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B107" s="68" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="C107" s="55"/>
       <c r="D107" s="55" t="s">
@@ -19448,17 +19462,19 @@
       <c r="F107" s="53"/>
       <c r="G107" s="53"/>
       <c r="H107" s="53"/>
-      <c r="I107" s="53"/>
+      <c r="I107" s="86" t="s">
+        <v>1330</v>
+      </c>
       <c r="J107" s="53"/>
       <c r="K107" s="53"/>
       <c r="L107" s="16"/>
     </row>
     <row r="108" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="87">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B108" s="68" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="C108" s="55"/>
       <c r="D108" s="55" t="s">
@@ -19468,17 +19484,19 @@
       <c r="F108" s="53"/>
       <c r="G108" s="53"/>
       <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
+      <c r="I108" s="86" t="s">
+        <v>1330</v>
+      </c>
       <c r="J108" s="53"/>
       <c r="K108" s="53"/>
       <c r="L108" s="16"/>
     </row>
     <row r="109" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="87">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B109" s="68" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C109" s="55"/>
       <c r="D109" s="55" t="s">
@@ -19495,10 +19513,10 @@
     </row>
     <row r="110" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="87">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B110" s="68" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C110" s="55"/>
       <c r="D110" s="55" t="s">
@@ -19515,10 +19533,10 @@
     </row>
     <row r="111" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="87">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B111" s="68" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C111" s="55"/>
       <c r="D111" s="55" t="s">
@@ -19535,11 +19553,15 @@
     </row>
     <row r="112" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="87">
-        <v>111</v>
-      </c>
-      <c r="B112" s="68"/>
+        <v>109</v>
+      </c>
+      <c r="B112" s="68" t="s">
+        <v>947</v>
+      </c>
       <c r="C112" s="55"/>
-      <c r="D112" s="73"/>
+      <c r="D112" s="55" t="s">
+        <v>1209</v>
+      </c>
       <c r="E112" s="56"/>
       <c r="F112" s="53"/>
       <c r="G112" s="53"/>
@@ -19551,14 +19573,14 @@
     </row>
     <row r="113" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="87">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B113" s="68" t="s">
-        <v>1232</v>
+        <v>948</v>
       </c>
       <c r="C113" s="55"/>
-      <c r="D113" s="73" t="s">
-        <v>1226</v>
+      <c r="D113" s="55" t="s">
+        <v>1209</v>
       </c>
       <c r="E113" s="56"/>
       <c r="F113" s="53"/>
@@ -19571,15 +19593,11 @@
     </row>
     <row r="114" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="87">
-        <v>113</v>
-      </c>
-      <c r="B114" s="68" t="s">
-        <v>1140</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B114" s="68"/>
       <c r="C114" s="55"/>
-      <c r="D114" s="73" t="s">
-        <v>1226</v>
-      </c>
+      <c r="D114" s="73"/>
       <c r="E114" s="56"/>
       <c r="F114" s="53"/>
       <c r="G114" s="53"/>
@@ -19591,10 +19609,10 @@
     </row>
     <row r="115" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="87">
-        <v>114</v>
-      </c>
-      <c r="B115" s="42" t="s">
-        <v>1141</v>
+        <v>112</v>
+      </c>
+      <c r="B115" s="68" t="s">
+        <v>1232</v>
       </c>
       <c r="C115" s="55"/>
       <c r="D115" s="73" t="s">
@@ -19611,10 +19629,10 @@
     </row>
     <row r="116" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="87">
-        <v>115</v>
-      </c>
-      <c r="B116" s="42" t="s">
-        <v>1142</v>
+        <v>113</v>
+      </c>
+      <c r="B116" s="68" t="s">
+        <v>1140</v>
       </c>
       <c r="C116" s="55"/>
       <c r="D116" s="73" t="s">
@@ -19631,10 +19649,10 @@
     </row>
     <row r="117" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="87">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" s="42" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C117" s="55"/>
       <c r="D117" s="73" t="s">
@@ -19651,10 +19669,10 @@
     </row>
     <row r="118" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="87">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B118" s="42" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C118" s="55"/>
       <c r="D118" s="73" t="s">
@@ -19671,10 +19689,10 @@
     </row>
     <row r="119" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="87">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B119" s="42" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C119" s="55"/>
       <c r="D119" s="73" t="s">
@@ -19691,10 +19709,10 @@
     </row>
     <row r="120" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="87">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B120" s="42" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C120" s="55"/>
       <c r="D120" s="73" t="s">
@@ -19711,10 +19729,10 @@
     </row>
     <row r="121" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="87">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B121" s="42" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C121" s="55"/>
       <c r="D121" s="73" t="s">
@@ -19731,10 +19749,10 @@
     </row>
     <row r="122" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="87">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B122" s="42" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C122" s="55"/>
       <c r="D122" s="73" t="s">
@@ -19751,10 +19769,10 @@
     </row>
     <row r="123" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="87">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C123" s="55"/>
       <c r="D123" s="73" t="s">
@@ -19771,10 +19789,10 @@
     </row>
     <row r="124" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="87">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C124" s="55"/>
       <c r="D124" s="73" t="s">
@@ -19791,10 +19809,10 @@
     </row>
     <row r="125" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="87">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B125" s="42" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C125" s="55"/>
       <c r="D125" s="73" t="s">
@@ -19811,10 +19829,10 @@
     </row>
     <row r="126" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="87">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B126" s="42" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C126" s="55"/>
       <c r="D126" s="73" t="s">
@@ -19831,56 +19849,54 @@
     </row>
     <row r="127" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="87">
-        <v>126</v>
-      </c>
-      <c r="B127" s="82" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C127" s="83" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D127" s="84" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E127" s="85"/>
-      <c r="F127" s="86"/>
-      <c r="G127" s="86"/>
-      <c r="H127" s="86"/>
-      <c r="I127" s="86"/>
+        <v>124</v>
+      </c>
+      <c r="B127" s="42" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C127" s="55"/>
+      <c r="D127" s="73" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E127" s="56"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="53"/>
+      <c r="I127" s="53"/>
       <c r="J127" s="53"/>
       <c r="K127" s="53"/>
       <c r="L127" s="16"/>
     </row>
     <row r="128" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="87">
-        <v>127</v>
-      </c>
-      <c r="B128" s="82" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C128" s="83" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D128" s="84" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E128" s="85"/>
-      <c r="F128" s="86"/>
-      <c r="G128" s="86"/>
-      <c r="H128" s="86"/>
-      <c r="I128" s="86"/>
+        <v>125</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C128" s="55"/>
+      <c r="D128" s="73" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E128" s="56"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="53"/>
+      <c r="I128" s="53"/>
       <c r="J128" s="53"/>
       <c r="K128" s="53"/>
       <c r="L128" s="16"/>
     </row>
     <row r="129" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="87">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B129" s="82" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C129" s="83"/>
+        <v>1357</v>
+      </c>
+      <c r="C129" s="83" t="s">
+        <v>1329</v>
+      </c>
       <c r="D129" s="84" t="s">
         <v>1177</v>
       </c>
@@ -19895,12 +19911,14 @@
     </row>
     <row r="130" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="87">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B130" s="82" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C130" s="83"/>
+        <v>1360</v>
+      </c>
+      <c r="C130" s="83" t="s">
+        <v>1364</v>
+      </c>
       <c r="D130" s="84" t="s">
         <v>1177</v>
       </c>
@@ -19915,90 +19933,84 @@
     </row>
     <row r="131" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="87">
-        <v>130</v>
-      </c>
-      <c r="B131" s="96" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C131" s="73" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D131" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131" s="82" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C131" s="83"/>
+      <c r="D131" s="84" t="s">
         <v>1177</v>
       </c>
-      <c r="E131" s="75" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F131" s="76"/>
-      <c r="G131" s="76"/>
-      <c r="H131" s="76"/>
-      <c r="I131" s="76" t="s">
-        <v>1354</v>
-      </c>
+      <c r="E131" s="85"/>
+      <c r="F131" s="86"/>
+      <c r="G131" s="86"/>
+      <c r="H131" s="86"/>
+      <c r="I131" s="86"/>
       <c r="J131" s="53"/>
       <c r="K131" s="53"/>
-      <c r="L131" s="17" t="s">
-        <v>1392</v>
-      </c>
+      <c r="L131" s="16"/>
     </row>
     <row r="132" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="87">
-        <v>131</v>
-      </c>
-      <c r="B132" s="71" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C132" s="103" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D132" s="55" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E132" s="56"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="B132" s="82" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C132" s="83"/>
+      <c r="D132" s="84" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E132" s="85"/>
+      <c r="F132" s="86"/>
+      <c r="G132" s="86"/>
+      <c r="H132" s="86"/>
+      <c r="I132" s="86"/>
       <c r="J132" s="53"/>
       <c r="K132" s="53"/>
-      <c r="L132" s="16" t="s">
-        <v>1218</v>
-      </c>
+      <c r="L132" s="16"/>
     </row>
     <row r="133" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="87">
-        <v>132</v>
-      </c>
-      <c r="B133" s="70" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C133" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" s="96" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C133" s="73" t="s">
         <v>1363</v>
       </c>
-      <c r="D133" s="55" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E133" s="102" t="s">
+      <c r="D133" s="97" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E133" s="75" t="s">
         <v>1326</v>
       </c>
-      <c r="F133" s="53"/>
-      <c r="G133" s="53"/>
-      <c r="H133" s="53"/>
-      <c r="I133" s="86" t="s">
-        <v>1330</v>
+      <c r="F133" s="76"/>
+      <c r="G133" s="76"/>
+      <c r="H133" s="76"/>
+      <c r="I133" s="76" t="s">
+        <v>1354</v>
       </c>
       <c r="J133" s="53"/>
       <c r="K133" s="53"/>
-      <c r="L133" s="16"/>
+      <c r="L133" s="17" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="134" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="87">
-        <v>133</v>
-      </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="55"/>
-      <c r="D134" s="73" t="s">
-        <v>1226</v>
+        <v>131</v>
+      </c>
+      <c r="B134" s="71" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C134" s="103" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D134" s="55" t="s">
+        <v>1194</v>
       </c>
       <c r="E134" s="56"/>
       <c r="F134" s="53"/>
@@ -20007,29 +20019,39 @@
       <c r="I134" s="53"/>
       <c r="J134" s="53"/>
       <c r="K134" s="53"/>
-      <c r="L134" s="16"/>
+      <c r="L134" s="16" t="s">
+        <v>1218</v>
+      </c>
     </row>
     <row r="135" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="87">
-        <v>134</v>
-      </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="55"/>
-      <c r="D135" s="73" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E135" s="56"/>
+        <v>132</v>
+      </c>
+      <c r="B135" s="70" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C135" s="103" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D135" s="55" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E135" s="102" t="s">
+        <v>1326</v>
+      </c>
       <c r="F135" s="53"/>
       <c r="G135" s="53"/>
       <c r="H135" s="53"/>
-      <c r="I135" s="53"/>
+      <c r="I135" s="86" t="s">
+        <v>1330</v>
+      </c>
       <c r="J135" s="53"/>
       <c r="K135" s="53"/>
       <c r="L135" s="16"/>
     </row>
     <row r="136" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="87">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="55"/>
@@ -20047,7 +20069,7 @@
     </row>
     <row r="137" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="87">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="55"/>
@@ -20065,7 +20087,7 @@
     </row>
     <row r="138" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="87">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="55"/>
@@ -20083,7 +20105,7 @@
     </row>
     <row r="139" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="87">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="55"/>
@@ -20101,7 +20123,7 @@
     </row>
     <row r="140" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="87">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="55"/>
@@ -20119,7 +20141,7 @@
     </row>
     <row r="141" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="87">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="55"/>
@@ -20137,7 +20159,7 @@
     </row>
     <row r="142" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="87">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="55"/>
@@ -20155,7 +20177,7 @@
     </row>
     <row r="143" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="87">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="55"/>
@@ -20173,7 +20195,7 @@
     </row>
     <row r="144" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="87">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="55"/>
@@ -20191,7 +20213,7 @@
     </row>
     <row r="145" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="87">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="55"/>
@@ -20209,7 +20231,7 @@
     </row>
     <row r="146" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="87">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="55"/>
@@ -20227,7 +20249,7 @@
     </row>
     <row r="147" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="87">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="55"/>
@@ -20245,7 +20267,7 @@
     </row>
     <row r="148" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="87">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="55"/>
@@ -20263,7 +20285,7 @@
     </row>
     <row r="149" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="87">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="55"/>
@@ -20281,7 +20303,7 @@
     </row>
     <row r="150" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="87">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="55"/>
@@ -20299,7 +20321,7 @@
     </row>
     <row r="151" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="87">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="55"/>
@@ -20317,7 +20339,7 @@
     </row>
     <row r="152" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="87">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="55"/>
@@ -20335,7 +20357,7 @@
     </row>
     <row r="153" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="87">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="55"/>
@@ -20353,11 +20375,13 @@
     </row>
     <row r="154" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="87">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="55"/>
-      <c r="D154" s="55"/>
+      <c r="D154" s="73" t="s">
+        <v>1226</v>
+      </c>
       <c r="E154" s="56"/>
       <c r="F154" s="53"/>
       <c r="G154" s="53"/>
@@ -20369,11 +20393,13 @@
     </row>
     <row r="155" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="87">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="55"/>
-      <c r="D155" s="55"/>
+      <c r="D155" s="73" t="s">
+        <v>1226</v>
+      </c>
       <c r="E155" s="56"/>
       <c r="F155" s="53"/>
       <c r="G155" s="53"/>
@@ -20385,7 +20411,7 @@
     </row>
     <row r="156" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="87">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="55"/>
@@ -20401,7 +20427,7 @@
     </row>
     <row r="157" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="87">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="55"/>
@@ -20417,7 +20443,7 @@
     </row>
     <row r="158" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="87">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="55"/>
@@ -20433,7 +20459,7 @@
     </row>
     <row r="159" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="87">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="55"/>
@@ -20449,7 +20475,7 @@
     </row>
     <row r="160" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="87">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="55"/>
@@ -20463,9 +20489,41 @@
       <c r="K160" s="53"/>
       <c r="L160" s="16"/>
     </row>
+    <row r="161" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="87">
+        <v>158</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="55"/>
+      <c r="D161" s="55"/>
+      <c r="E161" s="56"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="53"/>
+      <c r="H161" s="53"/>
+      <c r="I161" s="53"/>
+      <c r="J161" s="53"/>
+      <c r="K161" s="53"/>
+      <c r="L161" s="16"/>
+    </row>
+    <row r="162" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="87">
+        <v>159</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="55"/>
+      <c r="D162" s="55"/>
+      <c r="E162" s="56"/>
+      <c r="F162" s="53"/>
+      <c r="G162" s="53"/>
+      <c r="H162" s="53"/>
+      <c r="I162" s="53"/>
+      <c r="J162" s="53"/>
+      <c r="K162" s="53"/>
+      <c r="L162" s="16"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J65" r:id="rId1" location="action=448&amp;model=crm.lead&amp;view_type=list&amp;cids=1&amp;menu_id=280" xr:uid="{C6F3A2C4-4BF2-40C7-B047-0D787BA7E3C9}"/>
+    <hyperlink ref="J67" r:id="rId1" location="action=448&amp;model=crm.lead&amp;view_type=list&amp;cids=1&amp;menu_id=280" xr:uid="{C6F3A2C4-4BF2-40C7-B047-0D787BA7E3C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -20474,10 +20532,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B76D81-C372-4956-A199-F26C6CB74D23}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20521,70 +20579,58 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="1:9" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="87">
+        <v>1</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C2" s="89" t="s">
         <v>1167</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="90" t="s">
         <v>1165</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="91" t="s">
         <v>1166</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="92" t="s">
         <v>1170</v>
       </c>
-      <c r="G2" s="53" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B3" s="57" t="s">
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+    </row>
+    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="87">
+        <v>2</v>
+      </c>
+      <c r="B3" s="88" t="s">
         <v>1168</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="89" t="s">
         <v>1167</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="90" t="s">
         <v>1165</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="91" t="s">
         <v>1166</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="92" t="s">
         <v>1169</v>
       </c>
-      <c r="G3" s="53" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>1320</v>
-      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
     </row>
     <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>1322</v>
+        <v>1365</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>1167</v>
@@ -20596,44 +20642,44 @@
         <v>1166</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>1170</v>
+        <v>1366</v>
       </c>
       <c r="G4" s="92"/>
       <c r="H4" s="92"/>
       <c r="I4" s="92"/>
     </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>1168</v>
+        <v>1367</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>1167</v>
+        <v>1363</v>
       </c>
       <c r="D5" s="90" t="s">
         <v>1165</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>1166</v>
+        <v>1326</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="G5" s="92"/>
       <c r="H5" s="92"/>
       <c r="I5" s="92"/>
     </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A6" s="87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>1365</v>
+        <v>1350</v>
       </c>
       <c r="C6" s="89" t="s">
-        <v>1167</v>
+        <v>1364</v>
       </c>
       <c r="D6" s="90" t="s">
         <v>1165</v>
@@ -20641,19 +20687,21 @@
       <c r="E6" s="91" t="s">
         <v>1166</v>
       </c>
-      <c r="F6" s="92" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92" t="s">
+        <v>1347</v>
+      </c>
       <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
+      <c r="I6" s="92" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>1367</v>
+        <v>1175</v>
       </c>
       <c r="C7" s="89" t="s">
         <v>1363</v>
@@ -20662,24 +20710,24 @@
         <v>1165</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>1172</v>
-      </c>
+        <v>1166</v>
+      </c>
+      <c r="F7" s="92"/>
       <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
+      <c r="H7" s="92" t="s">
+        <v>1174</v>
+      </c>
       <c r="I7" s="92"/>
     </row>
-    <row r="8" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="87">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D8" s="90" t="s">
         <v>1165</v>
@@ -20688,20 +20736,18 @@
         <v>1166</v>
       </c>
       <c r="F8" s="92"/>
-      <c r="G8" s="92" t="s">
-        <v>1347</v>
-      </c>
+      <c r="G8" s="92"/>
       <c r="H8" s="92"/>
       <c r="I8" s="92" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="87">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>1175</v>
+        <v>1349</v>
       </c>
       <c r="C9" s="89" t="s">
         <v>1363</v>
@@ -20710,21 +20756,21 @@
         <v>1165</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>1166</v>
+        <v>1326</v>
       </c>
       <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92" t="s">
-        <v>1174</v>
-      </c>
+      <c r="G9" s="92" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H9" s="92"/>
       <c r="I9" s="92"/>
     </row>
-    <row r="10" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="87">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="C10" s="89" t="s">
         <v>1363</v>
@@ -20736,18 +20782,18 @@
         <v>1166</v>
       </c>
       <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
+      <c r="G10" s="92" t="s">
+        <v>1351</v>
+      </c>
       <c r="H10" s="92"/>
-      <c r="I10" s="92" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I10" s="92"/>
+    </row>
+    <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
-        <v>8</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>1349</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>1368</v>
       </c>
       <c r="C11" s="89" t="s">
         <v>1363</v>
@@ -20759,67 +20805,67 @@
         <v>1326</v>
       </c>
       <c r="F11" s="92"/>
-      <c r="G11" s="92" t="s">
-        <v>1351</v>
-      </c>
+      <c r="G11" s="92"/>
       <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-    </row>
-    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I11" s="92" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="87">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>1352</v>
+        <v>1369</v>
       </c>
       <c r="C12" s="89" t="s">
         <v>1363</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>1166</v>
+        <v>1326</v>
       </c>
       <c r="F12" s="92"/>
-      <c r="G12" s="92" t="s">
-        <v>1351</v>
-      </c>
+      <c r="G12" s="92"/>
       <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-    </row>
-    <row r="13" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="I12" s="92" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="87">
-        <v>10</v>
-      </c>
-      <c r="B13" s="95" t="s">
-        <v>1368</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>1372</v>
       </c>
       <c r="C13" s="89" t="s">
-        <v>1363</v>
+        <v>1167</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="E13" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="92" t="s">
+        <v>1328</v>
+      </c>
       <c r="G13" s="92"/>
       <c r="H13" s="92"/>
-      <c r="I13" s="92" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="I13" s="92"/>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="87">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>1369</v>
+        <v>1178</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>1363</v>
+        <v>1167</v>
       </c>
       <c r="D14" s="90" t="s">
         <v>1177</v>
@@ -20827,22 +20873,22 @@
       <c r="E14" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F14" s="92"/>
+      <c r="F14" s="92" t="s">
+        <v>1327</v>
+      </c>
       <c r="G14" s="92"/>
       <c r="H14" s="92"/>
-      <c r="I14" s="92" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="I14" s="92"/>
+    </row>
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="87">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>1167</v>
+        <v>1363</v>
       </c>
       <c r="D15" s="90" t="s">
         <v>1177</v>
@@ -20851,21 +20897,21 @@
         <v>1326</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>1328</v>
+        <v>1374</v>
       </c>
       <c r="G15" s="92"/>
       <c r="H15" s="92"/>
       <c r="I15" s="92"/>
     </row>
-    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="87">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>1178</v>
+        <v>1373</v>
       </c>
       <c r="C16" s="89" t="s">
-        <v>1167</v>
+        <v>1363</v>
       </c>
       <c r="D16" s="90" t="s">
         <v>1177</v>
@@ -20874,18 +20920,18 @@
         <v>1326</v>
       </c>
       <c r="F16" s="92" t="s">
-        <v>1327</v>
+        <v>1353</v>
       </c>
       <c r="G16" s="92"/>
       <c r="H16" s="92"/>
       <c r="I16" s="92"/>
     </row>
-    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="87">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C17" s="89" t="s">
         <v>1363</v>
@@ -20896,19 +20942,19 @@
       <c r="E17" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F17" s="92" t="s">
-        <v>1374</v>
-      </c>
+      <c r="F17" s="92"/>
       <c r="G17" s="92"/>
       <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-    </row>
-    <row r="18" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I17" s="92" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="87">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>1373</v>
+        <v>1182</v>
       </c>
       <c r="C18" s="89" t="s">
         <v>1363</v>
@@ -20919,42 +20965,42 @@
       <c r="E18" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F18" s="92" t="s">
-        <v>1353</v>
-      </c>
+      <c r="F18" s="92"/>
       <c r="G18" s="92"/>
       <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-    </row>
-    <row r="19" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="I18" s="92" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="87">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>1376</v>
+        <v>1390</v>
       </c>
       <c r="C19" s="89" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
       <c r="D19" s="90" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="E19" s="91" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F19" s="92"/>
+        <v>1166</v>
+      </c>
+      <c r="F19" s="92" t="s">
+        <v>1391</v>
+      </c>
       <c r="G19" s="92"/>
       <c r="H19" s="92"/>
-      <c r="I19" s="92" t="s">
-        <v>1377</v>
-      </c>
+      <c r="I19" s="92"/>
     </row>
     <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="87">
-        <v>17</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>1182</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>1185</v>
       </c>
       <c r="C20" s="89" t="s">
         <v>1363</v>
@@ -20969,38 +21015,38 @@
       <c r="G20" s="92"/>
       <c r="H20" s="92"/>
       <c r="I20" s="92" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="87">
-        <v>18</v>
-      </c>
-      <c r="B21" s="88" t="s">
-        <v>1390</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>1183</v>
       </c>
       <c r="C21" s="89" t="s">
-        <v>1329</v>
+        <v>1363</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="E21" s="91" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F21" s="92" t="s">
-        <v>1391</v>
-      </c>
+        <v>1326</v>
+      </c>
+      <c r="F21" s="92"/>
       <c r="G21" s="92"/>
       <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
+      <c r="I21" s="92" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="87">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C22" s="89" t="s">
         <v>1363</v>
@@ -21015,38 +21061,38 @@
       <c r="G22" s="92"/>
       <c r="H22" s="92"/>
       <c r="I22" s="92" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="87">
-        <v>20</v>
-      </c>
-      <c r="B23" s="100" t="s">
-        <v>1183</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>1188</v>
       </c>
       <c r="C23" s="89" t="s">
         <v>1363</v>
       </c>
       <c r="D23" s="90" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="E23" s="91" t="s">
-        <v>1326</v>
+        <v>1166</v>
       </c>
       <c r="F23" s="92"/>
       <c r="G23" s="92"/>
       <c r="H23" s="92"/>
       <c r="I23" s="92" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="87">
-        <v>21</v>
-      </c>
-      <c r="B24" s="100" t="s">
-        <v>1186</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>1379</v>
       </c>
       <c r="C24" s="89" t="s">
         <v>1363</v>
@@ -21061,38 +21107,38 @@
       <c r="G24" s="92"/>
       <c r="H24" s="92"/>
       <c r="I24" s="92" t="s">
-        <v>1334</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="87">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>1188</v>
+        <v>1382</v>
       </c>
       <c r="C25" s="89" t="s">
         <v>1363</v>
       </c>
       <c r="D25" s="90" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="E25" s="91" t="s">
-        <v>1166</v>
+        <v>1326</v>
       </c>
       <c r="F25" s="92"/>
       <c r="G25" s="92"/>
       <c r="H25" s="92"/>
       <c r="I25" s="92" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="87">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>1379</v>
+        <v>1387</v>
       </c>
       <c r="C26" s="89" t="s">
         <v>1363</v>
@@ -21103,25 +21149,27 @@
       <c r="E26" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F26" s="92"/>
+      <c r="F26" s="92" t="s">
+        <v>1388</v>
+      </c>
       <c r="G26" s="92"/>
       <c r="H26" s="92"/>
       <c r="I26" s="92" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="87">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>1382</v>
+        <v>1338</v>
       </c>
       <c r="C27" s="89" t="s">
         <v>1363</v>
       </c>
       <c r="D27" s="90" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="E27" s="91" t="s">
         <v>1326</v>
@@ -21130,15 +21178,15 @@
       <c r="G27" s="92"/>
       <c r="H27" s="92"/>
       <c r="I27" s="92" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="87">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>1387</v>
+        <v>1191</v>
       </c>
       <c r="C28" s="89" t="s">
         <v>1363</v>
@@ -21149,27 +21197,25 @@
       <c r="E28" s="91" t="s">
         <v>1326</v>
       </c>
-      <c r="F28" s="92" t="s">
-        <v>1388</v>
-      </c>
+      <c r="F28" s="92"/>
       <c r="G28" s="92"/>
       <c r="H28" s="92"/>
       <c r="I28" s="92" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="87">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>1338</v>
+        <v>1192</v>
       </c>
       <c r="C29" s="89" t="s">
         <v>1363</v>
       </c>
       <c r="D29" s="90" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="E29" s="91" t="s">
         <v>1326</v>
@@ -21178,15 +21224,15 @@
       <c r="G29" s="92"/>
       <c r="H29" s="92"/>
       <c r="I29" s="92" t="s">
-        <v>1389</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="87">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C30" s="89" t="s">
         <v>1363</v>
@@ -21201,84 +21247,84 @@
       <c r="G30" s="92"/>
       <c r="H30" s="92"/>
       <c r="I30" s="92" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="87">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="95" t="s">
-        <v>1192</v>
+        <v>1393</v>
       </c>
       <c r="C31" s="89" t="s">
         <v>1363</v>
       </c>
       <c r="D31" s="90" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F31" s="92"/>
+        <v>1166</v>
+      </c>
+      <c r="F31" s="92" t="s">
+        <v>1394</v>
+      </c>
       <c r="G31" s="92"/>
       <c r="H31" s="92"/>
-      <c r="I31" s="92" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="I31" s="92"/>
+    </row>
+    <row r="32" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="87">
-        <v>29</v>
-      </c>
-      <c r="B32" s="95" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C32" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="100" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C32" s="93" t="s">
         <v>1363</v>
       </c>
-      <c r="D32" s="90" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E32" s="91" t="s">
+      <c r="D32" s="101" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E32" s="87" t="s">
         <v>1326</v>
       </c>
       <c r="F32" s="92"/>
       <c r="G32" s="92"/>
       <c r="H32" s="92"/>
       <c r="I32" s="92" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="87">
-        <v>30</v>
-      </c>
-      <c r="B33" s="95" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C33" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="100" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C33" s="93" t="s">
         <v>1363</v>
       </c>
-      <c r="D33" s="90" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E33" s="91" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F33" s="92" t="s">
-        <v>1394</v>
-      </c>
+      <c r="D33" s="101" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E33" s="87" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F33" s="92"/>
       <c r="G33" s="92"/>
       <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-    </row>
-    <row r="34" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I33" s="92" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="87">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>1420</v>
+        <v>1198</v>
       </c>
       <c r="C34" s="93" t="s">
         <v>1363</v>
@@ -21293,15 +21339,15 @@
       <c r="G34" s="92"/>
       <c r="H34" s="92"/>
       <c r="I34" s="92" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="87">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>1197</v>
+        <v>1419</v>
       </c>
       <c r="C35" s="93" t="s">
         <v>1363</v>
@@ -21316,15 +21362,15 @@
       <c r="G35" s="92"/>
       <c r="H35" s="92"/>
       <c r="I35" s="92" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="87">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C36" s="93" t="s">
         <v>1363</v>
@@ -21339,18 +21385,18 @@
       <c r="G36" s="92"/>
       <c r="H36" s="92"/>
       <c r="I36" s="92" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="87">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="100" t="s">
-        <v>1419</v>
+        <v>1033</v>
       </c>
       <c r="C37" s="93" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D37" s="101" t="s">
         <v>1194</v>
@@ -21362,15 +21408,15 @@
       <c r="G37" s="92"/>
       <c r="H37" s="92"/>
       <c r="I37" s="92" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="87">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>1201</v>
+        <v>1421</v>
       </c>
       <c r="C38" s="93" t="s">
         <v>1363</v>
@@ -21385,18 +21431,18 @@
       <c r="G38" s="92"/>
       <c r="H38" s="92"/>
       <c r="I38" s="92" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="87">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="100" t="s">
-        <v>1033</v>
+        <v>1422</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D39" s="101" t="s">
         <v>1194</v>
@@ -21408,18 +21454,18 @@
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
       <c r="I39" s="92" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="87">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="100" t="s">
-        <v>1421</v>
+        <v>1214</v>
       </c>
       <c r="C40" s="93" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D40" s="101" t="s">
         <v>1194</v>
@@ -21431,15 +21477,15 @@
       <c r="G40" s="92"/>
       <c r="H40" s="92"/>
       <c r="I40" s="92" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="87">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="100" t="s">
-        <v>1422</v>
+        <v>1206</v>
       </c>
       <c r="C41" s="93" t="s">
         <v>1363</v>
@@ -21454,18 +21500,18 @@
       <c r="G41" s="92"/>
       <c r="H41" s="92"/>
       <c r="I41" s="92" t="s">
-        <v>1403</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="87">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>1214</v>
+        <v>1423</v>
       </c>
       <c r="C42" s="93" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D42" s="101" t="s">
         <v>1194</v>
@@ -21477,15 +21523,15 @@
       <c r="G42" s="92"/>
       <c r="H42" s="92"/>
       <c r="I42" s="92" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="87">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="100" t="s">
-        <v>1206</v>
+        <v>1425</v>
       </c>
       <c r="C43" s="93" t="s">
         <v>1363</v>
@@ -21500,18 +21546,18 @@
       <c r="G43" s="92"/>
       <c r="H43" s="92"/>
       <c r="I43" s="92" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A44" s="87">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="100" t="s">
-        <v>1423</v>
+        <v>1207</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
       <c r="D44" s="101" t="s">
         <v>1194</v>
@@ -21523,18 +21569,18 @@
       <c r="G44" s="92"/>
       <c r="H44" s="92"/>
       <c r="I44" s="92" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" s="87">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="100" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
       <c r="D45" s="101" t="s">
         <v>1194</v>
@@ -21546,15 +21592,15 @@
       <c r="G45" s="92"/>
       <c r="H45" s="92"/>
       <c r="I45" s="92" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="87">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="100" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="C46" s="93" t="s">
         <v>1329</v>
@@ -21569,18 +21615,18 @@
       <c r="G46" s="92"/>
       <c r="H46" s="92"/>
       <c r="I46" s="92" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A47" s="87">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" s="100" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C47" s="93" t="s">
-        <v>1329</v>
+        <v>1363</v>
       </c>
       <c r="D47" s="101" t="s">
         <v>1194</v>
@@ -21592,18 +21638,18 @@
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
       <c r="I47" s="92" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A48" s="87">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="100" t="s">
-        <v>1219</v>
+        <v>1429</v>
       </c>
       <c r="C48" s="93" t="s">
-        <v>1329</v>
+        <v>1363</v>
       </c>
       <c r="D48" s="101" t="s">
         <v>1194</v>
@@ -21615,15 +21661,15 @@
       <c r="G48" s="92"/>
       <c r="H48" s="92"/>
       <c r="I48" s="92" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" s="87">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" s="100" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="C49" s="93" t="s">
         <v>1363</v>
@@ -21638,15 +21684,15 @@
       <c r="G49" s="92"/>
       <c r="H49" s="92"/>
       <c r="I49" s="92" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A50" s="87">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="100" t="s">
-        <v>1429</v>
+        <v>1224</v>
       </c>
       <c r="C50" s="93" t="s">
         <v>1363</v>
@@ -21661,15 +21707,15 @@
       <c r="G50" s="92"/>
       <c r="H50" s="92"/>
       <c r="I50" s="92" t="s">
-        <v>1407</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51" s="87">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>1430</v>
+        <v>1208</v>
       </c>
       <c r="C51" s="93" t="s">
         <v>1363</v>
@@ -21684,15 +21730,15 @@
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
       <c r="I51" s="92" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A52" s="87">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>1224</v>
+        <v>1410</v>
       </c>
       <c r="C52" s="93" t="s">
         <v>1363</v>
@@ -21707,15 +21753,15 @@
       <c r="G52" s="92"/>
       <c r="H52" s="92"/>
       <c r="I52" s="92" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="87">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>1208</v>
+        <v>1431</v>
       </c>
       <c r="C53" s="93" t="s">
         <v>1363</v>
@@ -21730,52 +21776,6 @@
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
       <c r="I53" s="92" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="87">
-        <v>51</v>
-      </c>
-      <c r="B54" s="100" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C54" s="93" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D54" s="101" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E54" s="87" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="87">
-        <v>52</v>
-      </c>
-      <c r="B55" s="100" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C55" s="93" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D55" s="101" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E55" s="87" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92" t="s">
         <v>1418</v>
       </c>
     </row>

--- a/data/App_Tasks.xlsx
+++ b/data/App_Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webapp\web-space\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31362475-45F1-4457-8D08-CCBB3633F944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071D91BD-9152-4A85-B2AB-6868035C42A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16470" yWindow="-16635" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WebArena" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="MasterData" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="1481">
   <si>
     <t>No.</t>
   </si>
@@ -17173,11 +17172,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17185,7 +17184,7 @@
     <col min="1" max="1" width="5.109375" customWidth="1"/>
     <col min="2" max="2" width="44" style="18" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="52" customWidth="1"/>
     <col min="6" max="6" width="29.77734375" customWidth="1"/>
     <col min="7" max="7" width="18.21875" customWidth="1"/>
@@ -19149,7 +19148,9 @@
       <c r="B71" s="101" t="s">
         <v>1446</v>
       </c>
-      <c r="C71" s="85"/>
+      <c r="C71" s="85" t="s">
+        <v>1335</v>
+      </c>
       <c r="D71" s="81" t="s">
         <v>1226</v>
       </c>
@@ -19173,7 +19174,9 @@
       <c r="B72" s="101" t="s">
         <v>1448</v>
       </c>
-      <c r="C72" s="85"/>
+      <c r="C72" s="85" t="s">
+        <v>1335</v>
+      </c>
       <c r="D72" s="81" t="s">
         <v>1226</v>
       </c>
@@ -19197,7 +19200,9 @@
       <c r="B73" s="101" t="s">
         <v>1449</v>
       </c>
-      <c r="C73" s="85"/>
+      <c r="C73" s="85" t="s">
+        <v>1335</v>
+      </c>
       <c r="D73" s="81" t="s">
         <v>1226</v>
       </c>
@@ -19249,9 +19254,15 @@
       <c r="B75" s="101" t="s">
         <v>1453</v>
       </c>
-      <c r="C75" s="85"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="83"/>
+      <c r="C75" s="85" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D75" s="81" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E75" s="83" t="s">
+        <v>1299</v>
+      </c>
       <c r="F75" s="84" t="s">
         <v>1454</v>
       </c>
@@ -20023,9 +20034,15 @@
       <c r="B103" s="101" t="s">
         <v>1477</v>
       </c>
-      <c r="C103" s="85"/>
-      <c r="D103" s="81"/>
-      <c r="E103" s="83"/>
+      <c r="C103" s="85" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D103" s="81" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E103" s="83" t="s">
+        <v>1299</v>
+      </c>
       <c r="F103" s="84"/>
       <c r="G103" s="84"/>
       <c r="H103" s="84"/>
@@ -21694,8 +21711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B76D81-C372-4956-A199-F26C6CB74D23}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23261,7 +23278,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A68" s="79">
         <v>67</v>
       </c>
@@ -23291,7 +23308,9 @@
       <c r="B69" s="101" t="s">
         <v>1446</v>
       </c>
-      <c r="C69" s="85"/>
+      <c r="C69" s="85" t="s">
+        <v>1335</v>
+      </c>
       <c r="D69" s="81" t="s">
         <v>1226</v>
       </c>
@@ -23312,7 +23331,9 @@
       <c r="B70" s="101" t="s">
         <v>1448</v>
       </c>
-      <c r="C70" s="85"/>
+      <c r="C70" s="85" t="s">
+        <v>1335</v>
+      </c>
       <c r="D70" s="81" t="s">
         <v>1226</v>
       </c>
@@ -23333,7 +23354,9 @@
       <c r="B71" s="101" t="s">
         <v>1449</v>
       </c>
-      <c r="C71" s="85"/>
+      <c r="C71" s="85" t="s">
+        <v>1335</v>
+      </c>
       <c r="D71" s="81" t="s">
         <v>1226</v>
       </c>
@@ -23377,9 +23400,15 @@
       <c r="B73" s="101" t="s">
         <v>1453</v>
       </c>
-      <c r="C73" s="85"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="83"/>
+      <c r="C73" s="85" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D73" s="81" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E73" s="83" t="s">
+        <v>1299</v>
+      </c>
       <c r="F73" s="84" t="s">
         <v>1454</v>
       </c>
@@ -24015,9 +24044,15 @@
       <c r="B101" s="101" t="s">
         <v>1477</v>
       </c>
-      <c r="C101" s="85"/>
-      <c r="D101" s="81"/>
-      <c r="E101" s="83"/>
+      <c r="C101" s="85" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D101" s="81" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E101" s="83" t="s">
+        <v>1299</v>
+      </c>
       <c r="F101" s="84"/>
       <c r="G101" s="84"/>
       <c r="H101" s="84"/>
